--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E23AD6-44B5-8C4F-A0DD-3192E87C9ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA908F8E-BDD8-8849-9AC1-F5363F9A6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="920" windowWidth="13640" windowHeight="17260" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
+    <workbookView xWindow="480" yWindow="920" windowWidth="13640" windowHeight="17260" activeTab="1" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Price</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>interest income</t>
+  </si>
+  <si>
+    <t>operating margin%</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -242,7 +248,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -264,6 +270,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -601,17 +608,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12295623-B6AF-424A-9429-F5411A9FAD84}">
-  <dimension ref="G1:M15"/>
+  <dimension ref="G1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="7:13">
       <c r="M1" s="17">
-        <v>45674</v>
+        <v>45687</v>
       </c>
     </row>
     <row r="2" spans="7:13">
@@ -630,7 +637,7 @@
         <v>206</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="7:13">
@@ -647,11 +654,11 @@
         <v>4</v>
       </c>
       <c r="L5" s="3">
-        <f>1885+3410</f>
-        <v>5295</v>
+        <f>2304+3458</f>
+        <v>5762</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="7:13">
@@ -662,7 +669,7 @@
         <v>1489</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="7:13">
@@ -671,7 +678,7 @@
       </c>
       <c r="L7" s="3">
         <f>L4-L5+L6</f>
-        <v>216614</v>
+        <v>216147</v>
       </c>
     </row>
     <row r="8" spans="7:13">
@@ -704,8 +711,8 @@
         <v>9</v>
       </c>
       <c r="L12" s="2">
-        <f>NPV(L11,Model!S21:EV21)+L5-L6</f>
-        <v>133376.85219231894</v>
+        <f>NPV(L11,Model!T21:EW21)+L5-L6</f>
+        <v>149881.25475625932</v>
       </c>
     </row>
     <row r="13" spans="7:13">
@@ -714,13 +721,35 @@
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>647.46044753552883</v>
+        <v>727.57890658378312</v>
       </c>
     </row>
     <row r="15" spans="7:13">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>-0.39489677800417866</v>
+        <v>-0.32001971347309988</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12">
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="17">
+        <v>45674</v>
+      </c>
+      <c r="L19" s="19">
+        <v>647.46044753552883</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12">
+      <c r="J20" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>45687</v>
+      </c>
+      <c r="L20" s="19">
+        <v>727.57890658378312</v>
       </c>
     </row>
   </sheetData>
@@ -730,13 +759,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B727C-CA7F-E746-8E42-955BCD0EE802}">
-  <dimension ref="A1:EV33"/>
+  <dimension ref="A1:EW34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="R5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AB4" sqref="AB4"/>
+      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -745,12 +774,12 @@
     <col min="2" max="2" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37">
+    <row r="1" spans="1:38">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:38">
       <c r="C4" t="s">
         <v>13</v>
       </c>
@@ -775,56 +804,59 @@
       <c r="J4" t="s">
         <v>2</v>
       </c>
-      <c r="L4">
+      <c r="K4" t="s">
+        <v>42</v>
+      </c>
+      <c r="M4">
         <v>2018</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>2019</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>2020</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>2021</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>2022</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>2023</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>2024</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>2025</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>2026</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>2027</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>2028</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>2029</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>2030</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>2031</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>2032</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>2033</v>
       </c>
     </row>
-    <row r="5" spans="1:37" s="9" customFormat="1">
+    <row r="5" spans="1:38" s="9" customFormat="1">
       <c r="B5" s="9" t="s">
         <v>38</v>
       </c>
@@ -838,7 +870,7 @@
         <v>2216</v>
       </c>
       <c r="F5" s="9">
-        <f>Q5-SUM(C5:E5)</f>
+        <f>R5-SUM(C5:E5)</f>
         <v>2365</v>
       </c>
       <c r="G5" s="9">
@@ -851,37 +883,40 @@
         <v>2715</v>
       </c>
       <c r="J5" s="9">
-        <f>F5*1.25</f>
-        <v>2956.25</v>
-      </c>
-      <c r="L5" s="9">
+        <v>2866</v>
+      </c>
+      <c r="K5" s="9">
+        <f>G5*1.19</f>
+        <v>3002.37</v>
+      </c>
+      <c r="M5" s="9">
         <v>2421</v>
       </c>
-      <c r="M5" s="9">
+      <c r="N5" s="9">
         <v>3255</v>
       </c>
-      <c r="N5" s="9">
+      <c r="O5" s="9">
         <v>4286</v>
       </c>
-      <c r="O5" s="9">
+      <c r="P5" s="9">
         <v>5573</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <v>6891</v>
       </c>
-      <c r="Q5" s="9">
+      <c r="R5" s="9">
         <v>8680</v>
       </c>
-      <c r="R5" s="9">
+      <c r="S5" s="9">
         <f>SUM(G5:J5)</f>
-        <v>10736.25</v>
-      </c>
-      <c r="S5" s="9">
-        <f>R5*1.206</f>
-        <v>12947.9175</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="9" customFormat="1">
+        <v>10646</v>
+      </c>
+      <c r="T5" s="9">
+        <f>S5*1.206</f>
+        <v>12839.075999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" s="9" customFormat="1">
       <c r="B6" s="9" t="s">
         <v>33</v>
       </c>
@@ -895,7 +930,7 @@
         <v>72</v>
       </c>
       <c r="F6" s="9">
-        <f>Q6-SUM(C6:E6)</f>
+        <f>R6-SUM(C6:E6)</f>
         <v>72</v>
       </c>
       <c r="G6" s="9">
@@ -908,42 +943,44 @@
         <v>82</v>
       </c>
       <c r="J6" s="9">
-        <f>F6*1.25</f>
-        <v>90</v>
-      </c>
-      <c r="L6" s="9">
+        <v>91</v>
+      </c>
+      <c r="K6" s="9">
+        <v>100</v>
+      </c>
+      <c r="M6" s="9">
         <v>187</v>
       </c>
-      <c r="M6" s="9">
+      <c r="N6" s="9">
         <v>205</v>
       </c>
-      <c r="N6" s="9">
+      <c r="O6" s="9">
         <v>233</v>
       </c>
-      <c r="O6" s="9">
+      <c r="P6" s="9">
         <v>323</v>
       </c>
-      <c r="P6" s="9">
+      <c r="Q6" s="9">
         <v>354</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="R6" s="9">
         <v>291</v>
       </c>
-      <c r="R6" s="9">
+      <c r="S6" s="9">
         <f>SUM(G6:J6)</f>
-        <v>337</v>
-      </c>
-      <c r="S6" s="9">
-        <f>R6*1.206</f>
-        <v>406.42199999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:37" s="15" customFormat="1">
+        <v>338</v>
+      </c>
+      <c r="T6" s="9">
+        <f>S6*1.206</f>
+        <v>407.62799999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" s="15" customFormat="1">
       <c r="B7" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="15">
-        <f t="shared" ref="C7:J7" si="0">SUM(C5:C6)</f>
+        <f t="shared" ref="C7:K7" si="0">SUM(C5:C6)</f>
         <v>2096</v>
       </c>
       <c r="D7" s="15">
@@ -972,74 +1009,78 @@
       </c>
       <c r="J7" s="15">
         <f t="shared" si="0"/>
-        <v>3046.25</v>
-      </c>
-      <c r="L7" s="15">
-        <f t="shared" ref="L7:S7" si="1">SUM(L5:L6)</f>
+        <v>2957</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>3102.37</v>
+      </c>
+      <c r="M7" s="15">
+        <f t="shared" ref="M7:T7" si="1">SUM(M5:M6)</f>
         <v>2608</v>
       </c>
-      <c r="M7" s="15">
+      <c r="N7" s="15">
         <f t="shared" si="1"/>
         <v>3460</v>
       </c>
-      <c r="N7" s="15">
+      <c r="O7" s="15">
         <f t="shared" si="1"/>
         <v>4519</v>
       </c>
-      <c r="O7" s="15">
+      <c r="P7" s="15">
         <f t="shared" si="1"/>
         <v>5896</v>
       </c>
-      <c r="P7" s="15">
+      <c r="Q7" s="15">
         <f t="shared" si="1"/>
         <v>7245</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="R7" s="15">
         <f t="shared" si="1"/>
         <v>8971</v>
       </c>
-      <c r="R7" s="15">
-        <f t="shared" si="1"/>
-        <v>11073.25</v>
-      </c>
       <c r="S7" s="15">
         <f t="shared" si="1"/>
-        <v>13354.3395</v>
+        <v>10984</v>
       </c>
       <c r="T7" s="15">
-        <f t="shared" ref="T7:AA7" si="2">S7*(1+T25)</f>
-        <v>16692.924374999999</v>
+        <f t="shared" si="1"/>
+        <v>13246.704</v>
       </c>
       <c r="U7" s="15">
-        <f t="shared" si="2"/>
-        <v>20866.155468749999</v>
+        <f t="shared" ref="U7:AB7" si="2">T7*(1+U25)</f>
+        <v>16058.979259199999</v>
       </c>
       <c r="V7" s="15">
         <f t="shared" si="2"/>
-        <v>25874.03278125</v>
+        <v>20073.724073999998</v>
       </c>
       <c r="W7" s="15">
         <f t="shared" si="2"/>
-        <v>31566.319993124998</v>
+        <v>24891.417851759998</v>
       </c>
       <c r="X7" s="15">
         <f t="shared" si="2"/>
-        <v>37879.583991749998</v>
+        <v>30367.529779147197</v>
       </c>
       <c r="Y7" s="15">
         <f t="shared" si="2"/>
-        <v>43561.521590512493</v>
+        <v>36441.035734976635</v>
       </c>
       <c r="Z7" s="15">
         <f t="shared" si="2"/>
-        <v>47917.67374956375</v>
+        <v>41907.191095223126</v>
       </c>
       <c r="AA7" s="15">
         <f t="shared" si="2"/>
-        <v>50313.557437041942</v>
-      </c>
-    </row>
-    <row r="8" spans="1:37" s="18" customFormat="1">
+        <v>46097.910204745443</v>
+      </c>
+      <c r="AB7" s="15">
+        <f t="shared" si="2"/>
+        <v>48402.805714982715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" s="18" customFormat="1">
       <c r="B8" s="9" t="s">
         <v>39</v>
       </c>
@@ -1053,7 +1094,7 @@
         <v>420</v>
       </c>
       <c r="F8" s="9">
-        <f>Q8-SUM(C8:E8)</f>
+        <f>R8-SUM(C8:E8)</f>
         <v>443</v>
       </c>
       <c r="G8" s="18">
@@ -1066,37 +1107,39 @@
         <v>496</v>
       </c>
       <c r="J8" s="9">
-        <f>I8</f>
-        <v>496</v>
-      </c>
-      <c r="L8" s="18">
+        <v>536</v>
+      </c>
+      <c r="K8" s="18">
+        <v>509</v>
+      </c>
+      <c r="M8" s="18">
         <v>417</v>
       </c>
-      <c r="M8" s="18">
+      <c r="N8" s="18">
         <v>549</v>
       </c>
-      <c r="N8" s="18">
+      <c r="O8" s="18">
         <v>731</v>
       </c>
-      <c r="O8" s="18">
+      <c r="P8" s="18">
         <v>1022</v>
       </c>
-      <c r="P8" s="18">
+      <c r="Q8" s="18">
         <v>1187</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="R8" s="18">
         <v>1606</v>
       </c>
-      <c r="R8" s="9">
+      <c r="S8" s="9">
         <f>SUM(G8:J8)</f>
-        <v>1902</v>
-      </c>
-      <c r="S8" s="9">
-        <f>R8*1.206</f>
-        <v>2293.8119999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="18" customFormat="1">
+        <v>1942</v>
+      </c>
+      <c r="T8" s="9">
+        <f>S8*1.206</f>
+        <v>2342.0520000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="18" customFormat="1">
       <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
@@ -1110,7 +1153,7 @@
         <v>76</v>
       </c>
       <c r="F9" s="9">
-        <f>Q9-SUM(C9:E9)</f>
+        <f>R9-SUM(C9:E9)</f>
         <v>73</v>
       </c>
       <c r="G9" s="18">
@@ -1123,42 +1166,44 @@
         <v>88</v>
       </c>
       <c r="J9" s="9">
-        <f>F9</f>
-        <v>73</v>
-      </c>
-      <c r="L9" s="18">
+        <v>95</v>
+      </c>
+      <c r="K9" s="18">
+        <v>102</v>
+      </c>
+      <c r="M9" s="18">
         <v>205</v>
       </c>
-      <c r="M9" s="18">
+      <c r="N9" s="18">
         <v>247</v>
       </c>
-      <c r="N9" s="18">
+      <c r="O9" s="18">
         <v>256</v>
       </c>
-      <c r="O9" s="18">
+      <c r="P9" s="18">
         <v>331</v>
       </c>
-      <c r="P9" s="18">
+      <c r="Q9" s="18">
         <v>386</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="R9" s="18">
         <v>315</v>
       </c>
-      <c r="R9" s="9">
+      <c r="S9" s="9">
         <f>SUM(G9:J9)</f>
-        <v>323</v>
-      </c>
-      <c r="S9" s="9">
-        <f>R9*1.206</f>
-        <v>389.53800000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:37" s="11" customFormat="1">
+        <v>345</v>
+      </c>
+      <c r="T9" s="9">
+        <f>S9*1.206</f>
+        <v>416.07</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" s="11" customFormat="1">
       <c r="B10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C10" s="11">
-        <f t="shared" ref="C10:AG10" si="3">SUM(C8:C9)</f>
+        <f t="shared" ref="C10:AH10" si="3">SUM(C8:C9)</f>
         <v>438</v>
       </c>
       <c r="D10" s="11">
@@ -1187,47 +1232,43 @@
       </c>
       <c r="J10" s="11">
         <f t="shared" si="3"/>
-        <v>569</v>
+        <v>631</v>
       </c>
       <c r="K10" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="11">
+        <v>611</v>
+      </c>
+      <c r="M10" s="11">
         <f t="shared" si="3"/>
         <v>622</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11">
         <f t="shared" si="3"/>
         <v>796</v>
       </c>
-      <c r="N10" s="11">
+      <c r="O10" s="11">
         <f t="shared" si="3"/>
         <v>987</v>
       </c>
-      <c r="O10" s="11">
+      <c r="P10" s="11">
         <f t="shared" si="3"/>
         <v>1353</v>
       </c>
-      <c r="P10" s="11">
+      <c r="Q10" s="11">
         <f t="shared" si="3"/>
         <v>1573</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="R10" s="11">
         <f t="shared" si="3"/>
         <v>1921</v>
       </c>
-      <c r="R10" s="11">
-        <f t="shared" si="3"/>
-        <v>2225</v>
-      </c>
       <c r="S10" s="11">
         <f t="shared" si="3"/>
-        <v>2683.35</v>
+        <v>2287</v>
       </c>
       <c r="T10" s="11">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2758.1220000000003</v>
       </c>
       <c r="U10" s="11">
         <f t="shared" si="3"/>
@@ -1281,8 +1322,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:37" s="11" customFormat="1">
+      <c r="AH10" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="11" customFormat="1">
       <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
@@ -1299,7 +1344,7 @@
         <v>1792</v>
       </c>
       <c r="F11" s="11">
-        <f>Q11-SUM(C11:E11)</f>
+        <f>R11-SUM(C11:E11)</f>
         <v>1921</v>
       </c>
       <c r="G11" s="11">
@@ -1316,42 +1361,46 @@
       </c>
       <c r="J11" s="11">
         <f>J7-J10</f>
-        <v>2477.25</v>
-      </c>
-      <c r="L11" s="11">
-        <f t="shared" ref="L11:S11" si="5">L7-L10</f>
+        <v>2326</v>
+      </c>
+      <c r="K11" s="11">
+        <f>K7-K10</f>
+        <v>2491.37</v>
+      </c>
+      <c r="M11" s="11">
+        <f t="shared" ref="M11:T11" si="5">M7-M10</f>
         <v>1986</v>
       </c>
-      <c r="M11" s="11">
+      <c r="N11" s="11">
         <f t="shared" si="5"/>
         <v>2664</v>
       </c>
-      <c r="N11" s="11">
+      <c r="O11" s="11">
         <f t="shared" si="5"/>
         <v>3532</v>
       </c>
-      <c r="O11" s="11">
+      <c r="P11" s="11">
         <f t="shared" si="5"/>
         <v>4543</v>
       </c>
-      <c r="P11" s="11">
+      <c r="Q11" s="11">
         <f t="shared" si="5"/>
         <v>5672</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="R11" s="11">
         <f t="shared" si="5"/>
         <v>7050</v>
       </c>
-      <c r="R11" s="11">
-        <f t="shared" si="5"/>
-        <v>8848.25</v>
-      </c>
       <c r="S11" s="11">
         <f t="shared" si="5"/>
-        <v>10670.9895</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" s="9" customFormat="1">
+        <v>8697</v>
+      </c>
+      <c r="T11" s="11">
+        <f t="shared" si="5"/>
+        <v>10488.581999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="9" customFormat="1">
       <c r="B12" s="9" t="s">
         <v>35</v>
       </c>
@@ -1365,7 +1414,7 @@
         <v>799</v>
       </c>
       <c r="F12" s="9">
-        <f>Q12-SUM(C12:E12)</f>
+        <f>R12-SUM(C12:E12)</f>
         <v>847</v>
       </c>
       <c r="G12" s="9">
@@ -1378,37 +1427,39 @@
         <v>944</v>
       </c>
       <c r="J12" s="9">
-        <f>F12</f>
-        <v>847</v>
-      </c>
-      <c r="L12" s="9">
+        <v>1027</v>
+      </c>
+      <c r="K12" s="9">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="9">
         <v>1203</v>
       </c>
-      <c r="M12" s="9">
+      <c r="N12" s="9">
         <v>1534</v>
       </c>
-      <c r="N12" s="9">
+      <c r="O12" s="9">
         <v>1855</v>
       </c>
-      <c r="O12" s="9">
+      <c r="P12" s="9">
         <v>2292</v>
       </c>
-      <c r="P12" s="9">
+      <c r="Q12" s="9">
         <v>2814</v>
       </c>
-      <c r="Q12" s="9">
+      <c r="R12" s="9">
         <v>3301</v>
       </c>
-      <c r="R12" s="9">
+      <c r="S12" s="9">
         <f>SUM(G12:J12)</f>
-        <v>3674</v>
-      </c>
-      <c r="S12" s="9">
-        <f>R12*1.206</f>
-        <v>4430.8440000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:37" s="9" customFormat="1">
+        <v>3854</v>
+      </c>
+      <c r="T12" s="9">
+        <f>S12*1.206</f>
+        <v>4647.924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="9" customFormat="1">
       <c r="B13" s="9" t="s">
         <v>37</v>
       </c>
@@ -1422,7 +1473,7 @@
         <v>549</v>
       </c>
       <c r="F13" s="9">
-        <f>Q13-SUM(C13:E13)</f>
+        <f>R13-SUM(C13:E13)</f>
         <v>562</v>
       </c>
       <c r="G13" s="9">
@@ -1435,37 +1486,39 @@
         <v>626</v>
       </c>
       <c r="J13" s="9">
-        <f>I13</f>
-        <v>626</v>
-      </c>
-      <c r="L13" s="9">
+        <v>668</v>
+      </c>
+      <c r="K13" s="9">
+        <v>700</v>
+      </c>
+      <c r="M13" s="9">
         <v>529</v>
       </c>
-      <c r="M13" s="9">
+      <c r="N13" s="9">
         <v>748</v>
       </c>
-      <c r="N13" s="9">
+      <c r="O13" s="9">
         <v>1024</v>
       </c>
-      <c r="O13" s="9">
+      <c r="P13" s="9">
         <v>1397</v>
       </c>
-      <c r="P13" s="9">
+      <c r="Q13" s="9">
         <v>1768</v>
       </c>
-      <c r="Q13" s="9">
+      <c r="R13" s="9">
         <v>2124</v>
       </c>
-      <c r="R13" s="9">
+      <c r="S13" s="9">
         <f>SUM(G13:J13)</f>
-        <v>2501</v>
-      </c>
-      <c r="S13" s="9">
-        <f>R13*1.206</f>
-        <v>3016.2059999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" s="9" customFormat="1">
+        <v>2543</v>
+      </c>
+      <c r="T13" s="9">
+        <f>S13*1.206</f>
+        <v>3066.8579999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="9" customFormat="1">
       <c r="B14" s="9" t="s">
         <v>36</v>
       </c>
@@ -1479,7 +1532,7 @@
         <v>213</v>
       </c>
       <c r="F14" s="9">
-        <f>Q14-SUM(C14:E14)</f>
+        <f>R14-SUM(C14:E14)</f>
         <v>242</v>
       </c>
       <c r="G14" s="9">
@@ -1492,41 +1545,44 @@
         <v>225</v>
       </c>
       <c r="J14" s="9">
-        <v>222</v>
-      </c>
-      <c r="L14" s="9">
+        <v>257</v>
+      </c>
+      <c r="K14" s="9">
+        <v>265</v>
+      </c>
+      <c r="M14" s="9">
         <v>296</v>
       </c>
-      <c r="M14" s="9">
+      <c r="N14" s="9">
         <v>339</v>
       </c>
-      <c r="N14" s="9">
+      <c r="O14" s="9">
         <v>454</v>
       </c>
-      <c r="O14" s="9">
+      <c r="P14" s="9">
         <v>597</v>
       </c>
-      <c r="P14" s="9">
+      <c r="Q14" s="9">
         <v>735</v>
       </c>
-      <c r="Q14" s="9">
+      <c r="R14" s="9">
         <v>863</v>
       </c>
-      <c r="R14" s="9">
+      <c r="S14" s="9">
         <f>SUM(G14:J14)</f>
-        <v>901</v>
-      </c>
-      <c r="S14" s="9">
-        <f>R14*1.206</f>
-        <v>1086.606</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="11" customFormat="1">
+        <v>936</v>
+      </c>
+      <c r="T14" s="9">
+        <f>S14*1.206</f>
+        <v>1128.816</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" s="11" customFormat="1">
       <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="11">
-        <f t="shared" ref="C15:AK15" si="6">SUM(C12:C14)</f>
+        <f t="shared" ref="C15:AL15" si="6">SUM(C12:C14)</f>
         <v>1514</v>
       </c>
       <c r="D15" s="11">
@@ -1555,47 +1611,43 @@
       </c>
       <c r="J15" s="11">
         <f t="shared" si="6"/>
-        <v>1695</v>
+        <v>1952</v>
       </c>
       <c r="K15" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="L15" s="11">
+        <v>2065</v>
+      </c>
+      <c r="M15" s="11">
         <f t="shared" si="6"/>
         <v>2028</v>
       </c>
-      <c r="M15" s="11">
+      <c r="N15" s="11">
         <f t="shared" si="6"/>
         <v>2621</v>
       </c>
-      <c r="N15" s="11">
+      <c r="O15" s="11">
         <f t="shared" si="6"/>
         <v>3333</v>
       </c>
-      <c r="O15" s="11">
+      <c r="P15" s="11">
         <f t="shared" si="6"/>
         <v>4286</v>
       </c>
-      <c r="P15" s="11">
+      <c r="Q15" s="11">
         <f t="shared" si="6"/>
         <v>5317</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="R15" s="11">
         <f t="shared" si="6"/>
         <v>6288</v>
       </c>
-      <c r="R15" s="11">
-        <f t="shared" si="6"/>
-        <v>7076</v>
-      </c>
       <c r="S15" s="11">
         <f t="shared" si="6"/>
-        <v>8533.655999999999</v>
+        <v>7333</v>
       </c>
       <c r="T15" s="11">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8843.598</v>
       </c>
       <c r="U15" s="11">
         <f t="shared" si="6"/>
@@ -1665,13 +1717,17 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:37" s="11" customFormat="1">
+      <c r="AL15" s="11">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="11" customFormat="1">
       <c r="B16" s="11" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="11">
-        <f t="shared" ref="C16:AK16" si="7">C11-C15</f>
+        <f t="shared" ref="C16:AL16" si="7">C11-C15</f>
         <v>144</v>
       </c>
       <c r="D16" s="11">
@@ -1700,47 +1756,43 @@
       </c>
       <c r="J16" s="11">
         <f t="shared" si="7"/>
-        <v>782.25</v>
+        <v>374</v>
       </c>
       <c r="K16" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L16" s="11">
+        <v>426.36999999999989</v>
+      </c>
+      <c r="M16" s="11">
         <f t="shared" si="7"/>
         <v>-42</v>
       </c>
-      <c r="M16" s="11">
+      <c r="N16" s="11">
         <f t="shared" si="7"/>
         <v>43</v>
       </c>
-      <c r="N16" s="11">
+      <c r="O16" s="11">
         <f t="shared" si="7"/>
         <v>199</v>
       </c>
-      <c r="O16" s="11">
+      <c r="P16" s="11">
         <f t="shared" si="7"/>
         <v>257</v>
       </c>
-      <c r="P16" s="11">
+      <c r="Q16" s="11">
         <f t="shared" si="7"/>
         <v>355</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="R16" s="11">
         <f t="shared" si="7"/>
         <v>762</v>
       </c>
-      <c r="R16" s="11">
-        <f t="shared" si="7"/>
-        <v>1772.25</v>
-      </c>
       <c r="S16" s="11">
         <f t="shared" si="7"/>
-        <v>2137.3335000000006</v>
+        <v>1364</v>
       </c>
       <c r="T16" s="11">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1644.9839999999986</v>
       </c>
       <c r="U16" s="11">
         <f t="shared" si="7"/>
@@ -1810,8 +1862,12 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:152" s="18" customFormat="1">
+      <c r="AL16" s="11">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:153" s="18" customFormat="1">
       <c r="B17" s="18" t="s">
         <v>40</v>
       </c>
@@ -1825,7 +1881,7 @@
         <v>82</v>
       </c>
       <c r="F17" s="18">
-        <f>Q17-SUM(C17:E17)</f>
+        <f>R17-SUM(C17:E17)</f>
         <v>86</v>
       </c>
       <c r="G17" s="18">
@@ -1838,36 +1894,39 @@
         <v>108</v>
       </c>
       <c r="J17" s="18">
-        <v>110</v>
-      </c>
-      <c r="L17" s="18">
+        <v>106</v>
+      </c>
+      <c r="K17" s="18">
+        <v>103</v>
+      </c>
+      <c r="M17" s="18">
         <v>-52</v>
-      </c>
-      <c r="M17" s="18">
-        <v>-33</v>
       </c>
       <c r="N17" s="18">
         <v>-33</v>
       </c>
       <c r="O17" s="18">
+        <v>-33</v>
+      </c>
+      <c r="P17" s="18">
         <v>20</v>
       </c>
-      <c r="P17" s="18">
+      <c r="Q17" s="18">
         <v>82</v>
       </c>
-      <c r="Q17" s="18">
+      <c r="R17" s="18">
         <v>302</v>
       </c>
-      <c r="R17" s="18">
+      <c r="S17" s="18">
         <f>SUM(G17:J17)</f>
-        <v>423</v>
-      </c>
-      <c r="S17" s="9">
-        <f>R17*1.206</f>
-        <v>510.13799999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="2:152" s="9" customFormat="1">
+        <v>419</v>
+      </c>
+      <c r="T17" s="9">
+        <f>S17*1.206</f>
+        <v>505.31399999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="2:153" s="9" customFormat="1">
       <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
@@ -1881,7 +1940,7 @@
         <v>-14</v>
       </c>
       <c r="F18" s="9">
-        <f>Q18-SUM(C18:E18)</f>
+        <f>R18-SUM(C18:E18)</f>
         <v>-9</v>
       </c>
       <c r="G18" s="9">
@@ -1894,37 +1953,39 @@
         <v>-10</v>
       </c>
       <c r="J18" s="9">
-        <f>I18</f>
-        <v>-10</v>
-      </c>
-      <c r="L18" s="9">
+        <v>-17</v>
+      </c>
+      <c r="K18" s="9">
+        <v>-15</v>
+      </c>
+      <c r="M18" s="9">
         <v>56</v>
       </c>
-      <c r="M18" s="9">
+      <c r="N18" s="9">
         <v>58</v>
       </c>
-      <c r="N18" s="9">
+      <c r="O18" s="9">
         <v>-17</v>
       </c>
-      <c r="O18" s="9">
+      <c r="P18" s="9">
         <v>-28</v>
       </c>
-      <c r="P18" s="9">
+      <c r="Q18" s="9">
         <v>-38</v>
       </c>
-      <c r="Q18" s="9">
+      <c r="R18" s="9">
         <v>-56</v>
       </c>
-      <c r="R18" s="9">
+      <c r="S18" s="9">
         <f>SUM(G18:J18)</f>
-        <v>-38</v>
-      </c>
-      <c r="S18" s="9">
-        <f>R18</f>
-        <v>-38</v>
-      </c>
-    </row>
-    <row r="19" spans="2:152" s="11" customFormat="1">
+        <v>-45</v>
+      </c>
+      <c r="T18" s="9">
+        <f>S18</f>
+        <v>-45</v>
+      </c>
+    </row>
+    <row r="19" spans="2:153" s="11" customFormat="1">
       <c r="B19" s="11" t="s">
         <v>24</v>
       </c>
@@ -1958,86 +2019,86 @@
       </c>
       <c r="J19" s="11">
         <f>SUM(J16:J18)</f>
-        <v>882.25</v>
+        <v>463</v>
       </c>
       <c r="K19" s="11">
-        <f t="shared" ref="K19:S19" si="9">SUM(K16:K18)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
+        <f t="shared" ref="K19:T19" si="9">SUM(K16:K18)</f>
+        <v>514.36999999999989</v>
+      </c>
+      <c r="M19" s="11">
         <f t="shared" si="9"/>
         <v>-38</v>
       </c>
-      <c r="M19" s="11">
+      <c r="N19" s="11">
         <f t="shared" si="9"/>
         <v>68</v>
       </c>
-      <c r="N19" s="11">
+      <c r="O19" s="11">
         <f t="shared" si="9"/>
         <v>149</v>
       </c>
-      <c r="O19" s="11">
+      <c r="P19" s="11">
         <f t="shared" si="9"/>
         <v>249</v>
       </c>
-      <c r="P19" s="11">
+      <c r="Q19" s="11">
         <f t="shared" si="9"/>
         <v>399</v>
       </c>
-      <c r="Q19" s="11">
+      <c r="R19" s="11">
         <f t="shared" si="9"/>
         <v>1008</v>
       </c>
-      <c r="R19" s="9">
+      <c r="S19" s="9">
         <f>SUM(G19:J19)</f>
-        <v>2157.25</v>
-      </c>
-      <c r="S19" s="11">
+        <v>1738</v>
+      </c>
+      <c r="T19" s="11">
         <f t="shared" si="9"/>
-        <v>2609.4715000000006</v>
-      </c>
-      <c r="T19" s="11">
-        <f t="shared" ref="T19" si="10">SUM(T16:T18)</f>
-        <v>0</v>
+        <v>2105.2979999999984</v>
       </c>
       <c r="U19" s="11">
-        <f t="shared" ref="U19" si="11">SUM(U16:U18)</f>
+        <f t="shared" ref="U19" si="10">SUM(U16:U18)</f>
         <v>0</v>
       </c>
       <c r="V19" s="11">
-        <f t="shared" ref="V19" si="12">SUM(V16:V18)</f>
+        <f t="shared" ref="V19" si="11">SUM(V16:V18)</f>
         <v>0</v>
       </c>
       <c r="W19" s="11">
-        <f t="shared" ref="W19" si="13">SUM(W16:W18)</f>
+        <f t="shared" ref="W19" si="12">SUM(W16:W18)</f>
         <v>0</v>
       </c>
       <c r="X19" s="11">
-        <f t="shared" ref="X19" si="14">SUM(X16:X18)</f>
+        <f t="shared" ref="X19" si="13">SUM(X16:X18)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="11">
-        <f t="shared" ref="Y19" si="15">SUM(Y16:Y18)</f>
+        <f t="shared" ref="Y19" si="14">SUM(Y16:Y18)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="11">
-        <f t="shared" ref="Z19" si="16">SUM(Z16:Z18)</f>
+        <f t="shared" ref="Z19" si="15">SUM(Z16:Z18)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="11">
-        <f t="shared" ref="AA19" si="17">SUM(AA16:AA18)</f>
+        <f t="shared" ref="AA19" si="16">SUM(AA16:AA18)</f>
         <v>0</v>
       </c>
       <c r="AB19" s="11">
-        <f t="shared" ref="AB19" si="18">SUM(AB16:AB18)</f>
+        <f t="shared" ref="AB19" si="17">SUM(AB16:AB18)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="11">
-        <f t="shared" ref="AC19" si="19">SUM(AC16:AC18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:152" s="9" customFormat="1">
+        <f t="shared" ref="AC19" si="18">SUM(AC16:AC18)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="11">
+        <f t="shared" ref="AD19" si="19">SUM(AD16:AD18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:153" s="9" customFormat="1">
       <c r="B20" s="9" t="s">
         <v>25</v>
       </c>
@@ -2051,7 +2112,7 @@
         <v>57</v>
       </c>
       <c r="F20" s="9">
-        <f>Q20-SUM(C20:E20)</f>
+        <f>R20-SUM(C20:E20)</f>
         <v>52</v>
       </c>
       <c r="G20" s="9">
@@ -2064,37 +2125,40 @@
         <v>84</v>
       </c>
       <c r="J20" s="9">
-        <f>J19*I28</f>
-        <v>143.62209302325581</v>
-      </c>
-      <c r="L20" s="9">
+        <v>79</v>
+      </c>
+      <c r="K20" s="9">
+        <f>K19*J29</f>
+        <v>87.765075593952474</v>
+      </c>
+      <c r="M20" s="9">
         <v>-12</v>
       </c>
-      <c r="M20" s="9">
+      <c r="N20" s="9">
         <v>-559</v>
       </c>
-      <c r="N20" s="9">
+      <c r="O20" s="9">
         <v>30</v>
       </c>
-      <c r="O20" s="9">
+      <c r="P20" s="9">
         <v>19</v>
       </c>
-      <c r="P20" s="9">
+      <c r="Q20" s="9">
         <v>74</v>
       </c>
-      <c r="Q20" s="9">
+      <c r="R20" s="9">
         <v>-723</v>
       </c>
-      <c r="R20" s="9">
+      <c r="S20" s="9">
         <f>SUM(G20:J20)</f>
-        <v>377.62209302325584</v>
-      </c>
-      <c r="S20" s="9">
-        <f>S19*R28</f>
-        <v>456.78251918624881</v>
-      </c>
-    </row>
-    <row r="21" spans="2:152" s="14" customFormat="1">
+        <v>313</v>
+      </c>
+      <c r="T20" s="9">
+        <f>T19*S29</f>
+        <v>379.1474533947063</v>
+      </c>
+    </row>
+    <row r="21" spans="2:153" s="14" customFormat="1">
       <c r="B21" s="14" t="s">
         <v>26</v>
       </c>
@@ -2128,575 +2192,579 @@
       </c>
       <c r="J21" s="15">
         <f>J19-J20</f>
-        <v>738.62790697674416</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15">
-        <f t="shared" ref="L21:S21" si="21">L19-L20</f>
+        <v>384</v>
+      </c>
+      <c r="K21" s="15">
+        <f>K19-K20</f>
+        <v>426.60492440604742</v>
+      </c>
+      <c r="L21" s="15"/>
+      <c r="M21" s="15">
+        <f t="shared" ref="M21:T21" si="21">M19-M20</f>
         <v>-26</v>
       </c>
-      <c r="M21" s="15">
+      <c r="N21" s="15">
         <f t="shared" si="21"/>
         <v>627</v>
       </c>
-      <c r="N21" s="15">
+      <c r="O21" s="15">
         <f t="shared" si="21"/>
         <v>119</v>
       </c>
-      <c r="O21" s="15">
+      <c r="P21" s="15">
         <f t="shared" si="21"/>
         <v>230</v>
       </c>
-      <c r="P21" s="15">
+      <c r="Q21" s="15">
         <f t="shared" si="21"/>
         <v>325</v>
       </c>
-      <c r="Q21" s="15">
+      <c r="R21" s="15">
         <f t="shared" si="21"/>
         <v>1731</v>
       </c>
-      <c r="R21" s="15">
-        <f t="shared" si="21"/>
-        <v>1779.6279069767443</v>
-      </c>
       <c r="S21" s="15">
         <f t="shared" si="21"/>
-        <v>2152.6889808137516</v>
+        <v>1425</v>
       </c>
       <c r="T21" s="15">
-        <f t="shared" ref="T21:AA21" si="22">T7*T27</f>
-        <v>2670.8678999999997</v>
+        <f t="shared" si="21"/>
+        <v>1726.1505466052922</v>
       </c>
       <c r="U21" s="15">
-        <f t="shared" si="22"/>
-        <v>3547.2464296875</v>
+        <f t="shared" ref="U21:AB21" si="22">U7*U28</f>
+        <v>2569.4366814720001</v>
       </c>
       <c r="V21" s="15">
         <f t="shared" si="22"/>
-        <v>5174.8065562500005</v>
+        <v>3412.5330925799999</v>
       </c>
       <c r="W21" s="15">
         <f t="shared" si="22"/>
-        <v>6313.2639986249997</v>
+        <v>4978.2835703519995</v>
       </c>
       <c r="X21" s="15">
         <f t="shared" si="22"/>
-        <v>8333.5084781850001</v>
+        <v>6680.8565514123829</v>
       </c>
       <c r="Y21" s="15">
         <f t="shared" si="22"/>
-        <v>10019.149965817875</v>
+        <v>8745.8485763943918</v>
       </c>
       <c r="Z21" s="15">
         <f t="shared" si="22"/>
-        <v>11500.241699895299</v>
+        <v>10895.869684758014</v>
       </c>
       <c r="AA21" s="15">
         <f t="shared" si="22"/>
-        <v>12578.389359260485</v>
+        <v>12907.414857328726</v>
       </c>
       <c r="AB21" s="15">
-        <f>AA21*(1+Main!$L$10)</f>
-        <v>12704.17325285309</v>
+        <f t="shared" si="22"/>
+        <v>14520.841714494814</v>
       </c>
       <c r="AC21" s="15">
         <f>AB21*(1+Main!$L$10)</f>
-        <v>12831.214985381621</v>
+        <v>14666.050131639762</v>
       </c>
       <c r="AD21" s="15">
         <f>AC21*(1+Main!$L$10)</f>
-        <v>12959.527135235438</v>
+        <v>14812.710632956159</v>
       </c>
       <c r="AE21" s="15">
         <f>AD21*(1+Main!$L$10)</f>
-        <v>13089.122406587792</v>
+        <v>14960.837739285722</v>
       </c>
       <c r="AF21" s="15">
         <f>AE21*(1+Main!$L$10)</f>
-        <v>13220.01363065367</v>
+        <v>15110.446116678579</v>
       </c>
       <c r="AG21" s="15">
         <f>AF21*(1+Main!$L$10)</f>
-        <v>13352.213766960207</v>
+        <v>15261.550577845364</v>
       </c>
       <c r="AH21" s="15">
         <f>AG21*(1+Main!$L$10)</f>
-        <v>13485.73590462981</v>
+        <v>15414.166083623819</v>
       </c>
       <c r="AI21" s="15">
         <f>AH21*(1+Main!$L$10)</f>
-        <v>13620.593263676108</v>
+        <v>15568.307744460057</v>
       </c>
       <c r="AJ21" s="15">
         <f>AI21*(1+Main!$L$10)</f>
-        <v>13756.79919631287</v>
+        <v>15723.990821904657</v>
       </c>
       <c r="AK21" s="15">
         <f>AJ21*(1+Main!$L$10)</f>
-        <v>13894.367188275999</v>
+        <v>15881.230730123703</v>
       </c>
       <c r="AL21" s="15">
         <f>AK21*(1+Main!$L$10)</f>
-        <v>14033.310860158759</v>
+        <v>16040.043037424941</v>
       </c>
       <c r="AM21" s="15">
         <f>AL21*(1+Main!$L$10)</f>
-        <v>14173.643968760347</v>
+        <v>16200.44346779919</v>
       </c>
       <c r="AN21" s="15">
         <f>AM21*(1+Main!$L$10)</f>
-        <v>14315.380408447951</v>
+        <v>16362.447902477183</v>
       </c>
       <c r="AO21" s="15">
         <f>AN21*(1+Main!$L$10)</f>
-        <v>14458.53421253243</v>
+        <v>16526.072381501956</v>
       </c>
       <c r="AP21" s="15">
         <f>AO21*(1+Main!$L$10)</f>
-        <v>14603.119554657755</v>
+        <v>16691.333105316975</v>
       </c>
       <c r="AQ21" s="15">
         <f>AP21*(1+Main!$L$10)</f>
-        <v>14749.150750204331</v>
+        <v>16858.246436370144</v>
       </c>
       <c r="AR21" s="15">
         <f>AQ21*(1+Main!$L$10)</f>
-        <v>14896.642257706375</v>
+        <v>17026.828900733846</v>
       </c>
       <c r="AS21" s="15">
         <f>AR21*(1+Main!$L$10)</f>
-        <v>15045.608680283438</v>
+        <v>17197.097189741184</v>
       </c>
       <c r="AT21" s="15">
         <f>AS21*(1+Main!$L$10)</f>
-        <v>15196.064767086273</v>
+        <v>17369.068161638595</v>
       </c>
       <c r="AU21" s="15">
         <f>AT21*(1+Main!$L$10)</f>
-        <v>15348.025414757136</v>
+        <v>17542.758843254982</v>
       </c>
       <c r="AV21" s="15">
         <f>AU21*(1+Main!$L$10)</f>
-        <v>15501.505668904707</v>
+        <v>17718.186431687533</v>
       </c>
       <c r="AW21" s="15">
         <f>AV21*(1+Main!$L$10)</f>
-        <v>15656.520725593755</v>
+        <v>17895.36829600441</v>
       </c>
       <c r="AX21" s="15">
         <f>AW21*(1+Main!$L$10)</f>
-        <v>15813.085932849692</v>
+        <v>18074.321978964454</v>
       </c>
       <c r="AY21" s="15">
         <f>AX21*(1+Main!$L$10)</f>
-        <v>15971.216792178189</v>
+        <v>18255.065198754099</v>
       </c>
       <c r="AZ21" s="15">
         <f>AY21*(1+Main!$L$10)</f>
-        <v>16130.928960099971</v>
+        <v>18437.61585074164</v>
       </c>
       <c r="BA21" s="15">
         <f>AZ21*(1+Main!$L$10)</f>
-        <v>16292.238249700971</v>
+        <v>18621.992009249057</v>
       </c>
       <c r="BB21" s="15">
         <f>BA21*(1+Main!$L$10)</f>
-        <v>16455.160632197982</v>
+        <v>18808.211929341549</v>
       </c>
       <c r="BC21" s="15">
         <f>BB21*(1+Main!$L$10)</f>
-        <v>16619.712238519962</v>
+        <v>18996.294048634965</v>
       </c>
       <c r="BD21" s="15">
         <f>BC21*(1+Main!$L$10)</f>
-        <v>16785.909360905163</v>
+        <v>19186.256989121313</v>
       </c>
       <c r="BE21" s="15">
         <f>BD21*(1+Main!$L$10)</f>
-        <v>16953.768454514215</v>
+        <v>19378.119559012528</v>
       </c>
       <c r="BF21" s="15">
         <f>BE21*(1+Main!$L$10)</f>
-        <v>17123.306139059358</v>
+        <v>19571.900754602655</v>
       </c>
       <c r="BG21" s="15">
         <f>BF21*(1+Main!$L$10)</f>
-        <v>17294.539200449952</v>
+        <v>19767.619762148683</v>
       </c>
       <c r="BH21" s="15">
         <f>BG21*(1+Main!$L$10)</f>
-        <v>17467.48459245445</v>
+        <v>19965.29595977017</v>
       </c>
       <c r="BI21" s="15">
         <f>BH21*(1+Main!$L$10)</f>
-        <v>17642.159438378996</v>
+        <v>20164.948919367871</v>
       </c>
       <c r="BJ21" s="15">
         <f>BI21*(1+Main!$L$10)</f>
-        <v>17818.581032762788</v>
+        <v>20366.598408561549</v>
       </c>
       <c r="BK21" s="15">
         <f>BJ21*(1+Main!$L$10)</f>
-        <v>17996.766843090416</v>
+        <v>20570.264392647165</v>
       </c>
       <c r="BL21" s="15">
         <f>BK21*(1+Main!$L$10)</f>
-        <v>18176.734511521321</v>
+        <v>20775.967036573635</v>
       </c>
       <c r="BM21" s="15">
         <f>BL21*(1+Main!$L$10)</f>
-        <v>18358.501856636536</v>
+        <v>20983.726706939371</v>
       </c>
       <c r="BN21" s="15">
         <f>BM21*(1+Main!$L$10)</f>
-        <v>18542.086875202902</v>
+        <v>21193.563974008764</v>
       </c>
       <c r="BO21" s="15">
         <f>BN21*(1+Main!$L$10)</f>
-        <v>18727.507743954931</v>
+        <v>21405.499613748852</v>
       </c>
       <c r="BP21" s="15">
         <f>BO21*(1+Main!$L$10)</f>
-        <v>18914.782821394481</v>
+        <v>21619.554609886341</v>
       </c>
       <c r="BQ21" s="15">
         <f>BP21*(1+Main!$L$10)</f>
-        <v>19103.930649608425</v>
+        <v>21835.750155985206</v>
       </c>
       <c r="BR21" s="15">
         <f>BQ21*(1+Main!$L$10)</f>
-        <v>19294.969956104509</v>
+        <v>22054.107657545057</v>
       </c>
       <c r="BS21" s="15">
         <f>BR21*(1+Main!$L$10)</f>
-        <v>19487.919655665555</v>
+        <v>22274.648734120507</v>
       </c>
       <c r="BT21" s="15">
         <f>BS21*(1+Main!$L$10)</f>
-        <v>19682.798852222211</v>
+        <v>22497.395221461713</v>
       </c>
       <c r="BU21" s="15">
         <f>BT21*(1+Main!$L$10)</f>
-        <v>19879.626840744433</v>
+        <v>22722.369173676329</v>
       </c>
       <c r="BV21" s="15">
         <f>BU21*(1+Main!$L$10)</f>
-        <v>20078.423109151878</v>
+        <v>22949.592865413091</v>
       </c>
       <c r="BW21" s="15">
         <f>BV21*(1+Main!$L$10)</f>
-        <v>20279.207340243396</v>
+        <v>23179.088794067222</v>
       </c>
       <c r="BX21" s="15">
         <f>BW21*(1+Main!$L$10)</f>
-        <v>20481.99941364583</v>
+        <v>23410.879682007893</v>
       </c>
       <c r="BY21" s="15">
         <f>BX21*(1+Main!$L$10)</f>
-        <v>20686.819407782288</v>
+        <v>23644.988478827974</v>
       </c>
       <c r="BZ21" s="15">
         <f>BY21*(1+Main!$L$10)</f>
-        <v>20893.687601860111</v>
+        <v>23881.438363616253</v>
       </c>
       <c r="CA21" s="15">
         <f>BZ21*(1+Main!$L$10)</f>
-        <v>21102.624477878711</v>
+        <v>24120.252747252416</v>
       </c>
       <c r="CB21" s="15">
         <f>CA21*(1+Main!$L$10)</f>
-        <v>21313.650722657498</v>
+        <v>24361.45527472494</v>
       </c>
       <c r="CC21" s="15">
         <f>CB21*(1+Main!$L$10)</f>
-        <v>21526.787229884074</v>
+        <v>24605.069827472191</v>
       </c>
       <c r="CD21" s="15">
         <f>CC21*(1+Main!$L$10)</f>
-        <v>21742.055102182916</v>
+        <v>24851.120525746912</v>
       </c>
       <c r="CE21" s="15">
         <f>CD21*(1+Main!$L$10)</f>
-        <v>21959.475653204747</v>
+        <v>25099.631731004381</v>
       </c>
       <c r="CF21" s="15">
         <f>CE21*(1+Main!$L$10)</f>
-        <v>22179.070409736796</v>
+        <v>25350.628048314426</v>
       </c>
       <c r="CG21" s="15">
         <f>CF21*(1+Main!$L$10)</f>
-        <v>22400.861113834166</v>
+        <v>25604.134328797569</v>
       </c>
       <c r="CH21" s="15">
         <f>CG21*(1+Main!$L$10)</f>
-        <v>22624.869724972508</v>
+        <v>25860.175672085545</v>
       </c>
       <c r="CI21" s="15">
         <f>CH21*(1+Main!$L$10)</f>
-        <v>22851.118422222233</v>
+        <v>26118.777428806399</v>
       </c>
       <c r="CJ21" s="15">
         <f>CI21*(1+Main!$L$10)</f>
-        <v>23079.629606444454</v>
+        <v>26379.965203094464</v>
       </c>
       <c r="CK21" s="15">
         <f>CJ21*(1+Main!$L$10)</f>
-        <v>23310.425902508898</v>
+        <v>26643.76485512541</v>
       </c>
       <c r="CL21" s="15">
         <f>CK21*(1+Main!$L$10)</f>
-        <v>23543.530161533989</v>
+        <v>26910.202503676664</v>
       </c>
       <c r="CM21" s="15">
         <f>CL21*(1+Main!$L$10)</f>
-        <v>23778.965463149329</v>
+        <v>27179.30452871343</v>
       </c>
       <c r="CN21" s="15">
         <f>CM21*(1+Main!$L$10)</f>
-        <v>24016.755117780824</v>
+        <v>27451.097574000563</v>
       </c>
       <c r="CO21" s="15">
         <f>CN21*(1+Main!$L$10)</f>
-        <v>24256.922668958632</v>
+        <v>27725.608549740569</v>
       </c>
       <c r="CP21" s="15">
         <f>CO21*(1+Main!$L$10)</f>
-        <v>24499.491895648218</v>
+        <v>28002.864635237976</v>
       </c>
       <c r="CQ21" s="15">
         <f>CP21*(1+Main!$L$10)</f>
-        <v>24744.486814604701</v>
+        <v>28282.893281590357</v>
       </c>
       <c r="CR21" s="15">
         <f>CQ21*(1+Main!$L$10)</f>
-        <v>24991.93168275075</v>
+        <v>28565.722214406262</v>
       </c>
       <c r="CS21" s="15">
         <f>CR21*(1+Main!$L$10)</f>
-        <v>25241.850999578259</v>
+        <v>28851.379436550324</v>
       </c>
       <c r="CT21" s="15">
         <f>CS21*(1+Main!$L$10)</f>
-        <v>25494.269509574042</v>
+        <v>29139.893230915826</v>
       </c>
       <c r="CU21" s="15">
         <f>CT21*(1+Main!$L$10)</f>
-        <v>25749.212204669784</v>
+        <v>29431.292163224985</v>
       </c>
       <c r="CV21" s="15">
         <f>CU21*(1+Main!$L$10)</f>
-        <v>26006.704326716481</v>
+        <v>29725.605084857234</v>
       </c>
       <c r="CW21" s="15">
         <f>CV21*(1+Main!$L$10)</f>
-        <v>26266.771369983646</v>
+        <v>30022.861135705807</v>
       </c>
       <c r="CX21" s="15">
         <f>CW21*(1+Main!$L$10)</f>
-        <v>26529.439083683483</v>
+        <v>30323.089747062866</v>
       </c>
       <c r="CY21" s="15">
         <f>CX21*(1+Main!$L$10)</f>
-        <v>26794.733474520319</v>
+        <v>30626.320644533494</v>
       </c>
       <c r="CZ21" s="15">
         <f>CY21*(1+Main!$L$10)</f>
-        <v>27062.680809265523</v>
+        <v>30932.58385097883</v>
       </c>
       <c r="DA21" s="15">
         <f>CZ21*(1+Main!$L$10)</f>
-        <v>27333.307617358179</v>
+        <v>31241.909689488617</v>
       </c>
       <c r="DB21" s="15">
         <f>DA21*(1+Main!$L$10)</f>
-        <v>27606.640693531761</v>
+        <v>31554.328786383503</v>
       </c>
       <c r="DC21" s="15">
         <f>DB21*(1+Main!$L$10)</f>
-        <v>27882.70710046708</v>
+        <v>31869.872074247338</v>
       </c>
       <c r="DD21" s="15">
         <f>DC21*(1+Main!$L$10)</f>
-        <v>28161.534171471751</v>
+        <v>32188.570794989813</v>
       </c>
       <c r="DE21" s="15">
         <f>DD21*(1+Main!$L$10)</f>
-        <v>28443.149513186469</v>
+        <v>32510.456502939713</v>
       </c>
       <c r="DF21" s="15">
         <f>DE21*(1+Main!$L$10)</f>
-        <v>28727.581008318335</v>
+        <v>32835.561067969109</v>
       </c>
       <c r="DG21" s="15">
         <f>DF21*(1+Main!$L$10)</f>
-        <v>29014.85681840152</v>
+        <v>33163.916678648799</v>
       </c>
       <c r="DH21" s="15">
         <f>DG21*(1+Main!$L$10)</f>
-        <v>29305.005386585537</v>
+        <v>33495.555845435287</v>
       </c>
       <c r="DI21" s="15">
         <f>DH21*(1+Main!$L$10)</f>
-        <v>29598.055440451393</v>
+        <v>33830.511403889643</v>
       </c>
       <c r="DJ21" s="15">
         <f>DI21*(1+Main!$L$10)</f>
-        <v>29894.035994855909</v>
+        <v>34168.816517928542</v>
       </c>
       <c r="DK21" s="15">
         <f>DJ21*(1+Main!$L$10)</f>
-        <v>30192.976354804468</v>
+        <v>34510.504683107829</v>
       </c>
       <c r="DL21" s="15">
         <f>DK21*(1+Main!$L$10)</f>
-        <v>30494.906118352512</v>
+        <v>34855.609729938908</v>
       </c>
       <c r="DM21" s="15">
         <f>DL21*(1+Main!$L$10)</f>
-        <v>30799.855179536036</v>
+        <v>35204.165827238299</v>
       </c>
       <c r="DN21" s="15">
         <f>DM21*(1+Main!$L$10)</f>
-        <v>31107.853731331397</v>
+        <v>35556.207485510684</v>
       </c>
       <c r="DO21" s="15">
         <f>DN21*(1+Main!$L$10)</f>
-        <v>31418.932268644712</v>
+        <v>35911.769560365792</v>
       </c>
       <c r="DP21" s="15">
         <f>DO21*(1+Main!$L$10)</f>
-        <v>31733.121591331161</v>
+        <v>36270.88725596945</v>
       </c>
       <c r="DQ21" s="15">
         <f>DP21*(1+Main!$L$10)</f>
-        <v>32050.452807244474</v>
+        <v>36633.596128529141</v>
       </c>
       <c r="DR21" s="15">
         <f>DQ21*(1+Main!$L$10)</f>
-        <v>32370.957335316918</v>
+        <v>36999.932089814436</v>
       </c>
       <c r="DS21" s="15">
         <f>DR21*(1+Main!$L$10)</f>
-        <v>32694.666908670086</v>
+        <v>37369.931410712583</v>
       </c>
       <c r="DT21" s="15">
         <f>DS21*(1+Main!$L$10)</f>
-        <v>33021.613577756783</v>
+        <v>37743.630724819712</v>
       </c>
       <c r="DU21" s="15">
         <f>DT21*(1+Main!$L$10)</f>
-        <v>33351.829713534353</v>
+        <v>38121.067032067913</v>
       </c>
       <c r="DV21" s="15">
         <f>DU21*(1+Main!$L$10)</f>
-        <v>33685.348010669695</v>
+        <v>38502.277702388594</v>
       </c>
       <c r="DW21" s="15">
         <f>DV21*(1+Main!$L$10)</f>
-        <v>34022.201490776395</v>
+        <v>38887.300479412479</v>
       </c>
       <c r="DX21" s="15">
         <f>DW21*(1+Main!$L$10)</f>
-        <v>34362.423505684157</v>
+        <v>39276.173484206607</v>
       </c>
       <c r="DY21" s="15">
         <f>DX21*(1+Main!$L$10)</f>
-        <v>34706.047740741</v>
+        <v>39668.935219048675</v>
       </c>
       <c r="DZ21" s="15">
         <f>DY21*(1+Main!$L$10)</f>
-        <v>35053.108218148409</v>
+        <v>40065.624571239161</v>
       </c>
       <c r="EA21" s="15">
         <f>DZ21*(1+Main!$L$10)</f>
-        <v>35403.639300329894</v>
+        <v>40466.280816951556</v>
       </c>
       <c r="EB21" s="15">
         <f>EA21*(1+Main!$L$10)</f>
-        <v>35757.675693333193</v>
+        <v>40870.943625121072</v>
       </c>
       <c r="EC21" s="15">
         <f>EB21*(1+Main!$L$10)</f>
-        <v>36115.252450266526</v>
+        <v>41279.653061372286</v>
       </c>
       <c r="ED21" s="15">
         <f>EC21*(1+Main!$L$10)</f>
-        <v>36476.40497476919</v>
+        <v>41692.449591986013</v>
       </c>
       <c r="EE21" s="15">
         <f>ED21*(1+Main!$L$10)</f>
-        <v>36841.169024516879</v>
+        <v>42109.374087905875</v>
       </c>
       <c r="EF21" s="15">
         <f>EE21*(1+Main!$L$10)</f>
-        <v>37209.580714762051</v>
+        <v>42530.467828784931</v>
       </c>
       <c r="EG21" s="15">
         <f>EF21*(1+Main!$L$10)</f>
-        <v>37581.676521909671</v>
+        <v>42955.772507072783</v>
       </c>
       <c r="EH21" s="15">
         <f>EG21*(1+Main!$L$10)</f>
-        <v>37957.493287128767</v>
+        <v>43385.330232143511</v>
       </c>
       <c r="EI21" s="15">
         <f>EH21*(1+Main!$L$10)</f>
-        <v>38337.068220000052</v>
+        <v>43819.183534464944</v>
       </c>
       <c r="EJ21" s="15">
         <f>EI21*(1+Main!$L$10)</f>
-        <v>38720.438902200054</v>
+        <v>44257.375369809597</v>
       </c>
       <c r="EK21" s="15">
         <f>EJ21*(1+Main!$L$10)</f>
-        <v>39107.643291222055</v>
+        <v>44699.949123507693</v>
       </c>
       <c r="EL21" s="15">
         <f>EK21*(1+Main!$L$10)</f>
-        <v>39498.719724134273</v>
+        <v>45146.948614742767</v>
       </c>
       <c r="EM21" s="15">
         <f>EL21*(1+Main!$L$10)</f>
-        <v>39893.706921375619</v>
+        <v>45598.418100890194</v>
       </c>
       <c r="EN21" s="15">
         <f>EM21*(1+Main!$L$10)</f>
-        <v>40292.643990589379</v>
+        <v>46054.4022818991</v>
       </c>
       <c r="EO21" s="15">
         <f>EN21*(1+Main!$L$10)</f>
-        <v>40695.570430495274</v>
+        <v>46514.946304718091</v>
       </c>
       <c r="EP21" s="15">
         <f>EO21*(1+Main!$L$10)</f>
-        <v>41102.526134800224</v>
+        <v>46980.09576776527</v>
       </c>
       <c r="EQ21" s="15">
         <f>EP21*(1+Main!$L$10)</f>
-        <v>41513.551396148228</v>
+        <v>47449.896725442923</v>
       </c>
       <c r="ER21" s="15">
         <f>EQ21*(1+Main!$L$10)</f>
-        <v>41928.686910109711</v>
+        <v>47924.395692697355</v>
       </c>
       <c r="ES21" s="15">
         <f>ER21*(1+Main!$L$10)</f>
-        <v>42347.973779210806</v>
+        <v>48403.639649624332</v>
       </c>
       <c r="ET21" s="15">
         <f>ES21*(1+Main!$L$10)</f>
-        <v>42771.453517002912</v>
+        <v>48887.676046120578</v>
       </c>
       <c r="EU21" s="15">
         <f>ET21*(1+Main!$L$10)</f>
-        <v>43199.168052172943</v>
+        <v>49376.552806581785</v>
       </c>
       <c r="EV21" s="15">
         <f>EU21*(1+Main!$L$10)</f>
-        <v>43631.159732694672</v>
-      </c>
-    </row>
-    <row r="22" spans="2:152" s="10" customFormat="1">
+        <v>49870.318334647607</v>
+      </c>
+      <c r="EW21" s="15">
+        <f>EV21*(1+Main!$L$10)</f>
+        <v>50369.021517994086</v>
+      </c>
+    </row>
+    <row r="22" spans="2:153" s="10" customFormat="1">
       <c r="B22" s="10" t="s">
         <v>27</v>
       </c>
@@ -2725,76 +2793,79 @@
         <v>1.2608337864956038</v>
       </c>
       <c r="I22" s="12">
-        <f t="shared" ref="I22:J22" si="24">I21/I23</f>
+        <f t="shared" ref="I22:K22" si="24">I21/I23</f>
         <v>2.0714258314473128</v>
       </c>
       <c r="J22" s="12">
         <f t="shared" si="24"/>
-        <v>3.5416965887488212</v>
-      </c>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12">
-        <f>L21/L23</f>
+        <v>1.8373205741626795</v>
+      </c>
+      <c r="K22" s="12">
+        <f t="shared" si="24"/>
+        <v>2.0314520209811784</v>
+      </c>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12">
+        <f>M21/M23</f>
         <v>-0.14619389809160735</v>
       </c>
-      <c r="M22" s="12">
-        <f t="shared" ref="M22:R22" si="25">M21/M23</f>
+      <c r="N22" s="12">
+        <f t="shared" ref="N22:S22" si="25">N21/N23</f>
         <v>3.1789812049707704</v>
       </c>
-      <c r="N22" s="12">
+      <c r="O22" s="12">
         <f t="shared" si="25"/>
         <v>0.58771817185076891</v>
       </c>
-      <c r="O22" s="12">
+      <c r="P22" s="12">
         <f t="shared" si="25"/>
         <v>1.1610649489636233</v>
       </c>
-      <c r="P22" s="12">
+      <c r="Q22" s="12">
         <f t="shared" si="25"/>
         <v>1.5967769671063945</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="R22" s="12">
         <f t="shared" si="25"/>
         <v>8.4196292639269217</v>
       </c>
-      <c r="R22" s="12">
+      <c r="S22" s="12">
         <f t="shared" si="25"/>
-        <v>8.5332574464725557</v>
-      </c>
-      <c r="S22" s="12">
-        <f t="shared" ref="S22:Z22" si="26">S21/S23</f>
-        <v>10.322073060022209</v>
+        <v>6.8509615384615383</v>
       </c>
       <c r="T22" s="12">
-        <f t="shared" si="26"/>
-        <v>12.806723982507959</v>
+        <f t="shared" ref="T22:AA22" si="26">T21/T23</f>
+        <v>8.219764507644248</v>
       </c>
       <c r="U22" s="12">
         <f t="shared" si="26"/>
-        <v>17.008930289268385</v>
+        <v>12.235412768914287</v>
       </c>
       <c r="V22" s="12">
         <f t="shared" si="26"/>
-        <v>24.813027716109175</v>
+        <v>16.250157583714284</v>
       </c>
       <c r="W22" s="12">
         <f t="shared" si="26"/>
-        <v>30.27189381365319</v>
+        <v>23.706112239771425</v>
       </c>
       <c r="X22" s="12">
         <f t="shared" si="26"/>
-        <v>39.958899834022212</v>
+        <v>31.813602625773253</v>
       </c>
       <c r="Y22" s="12">
         <f t="shared" si="26"/>
-        <v>48.041495482267614</v>
+        <v>41.646897982830438</v>
       </c>
       <c r="Z22" s="12">
         <f t="shared" si="26"/>
-        <v>55.143281770950651</v>
-      </c>
-      <c r="AA22" s="12"/>
-      <c r="AB22" s="11"/>
+        <v>51.885093736942927</v>
+      </c>
+      <c r="AA22" s="12">
+        <f t="shared" si="26"/>
+        <v>61.463880272993933</v>
+      </c>
+      <c r="AB22" s="12"/>
       <c r="AC22" s="11"/>
       <c r="AD22" s="11"/>
       <c r="AE22" s="11"/>
@@ -2805,8 +2876,9 @@
       <c r="AJ22" s="11"/>
       <c r="AK22" s="11"/>
       <c r="AL22" s="11"/>
-    </row>
-    <row r="23" spans="2:152">
+      <c r="AM22" s="11"/>
+    </row>
+    <row r="23" spans="2:153">
       <c r="B23" t="s">
         <v>1</v>
       </c>
@@ -2820,7 +2892,7 @@
         <v>206.27699999999999</v>
       </c>
       <c r="F23" s="9">
-        <f>Q23</f>
+        <f>R23</f>
         <v>205.59100000000001</v>
       </c>
       <c r="G23" s="9">
@@ -2833,65 +2905,64 @@
         <v>208.55199999999999</v>
       </c>
       <c r="J23" s="9">
-        <f>I23</f>
-        <v>208.55199999999999</v>
-      </c>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9">
+        <v>209</v>
+      </c>
+      <c r="K23" s="9">
+        <v>210</v>
+      </c>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9">
         <v>177.846</v>
       </c>
-      <c r="M23" s="9">
+      <c r="N23" s="9">
         <v>197.233</v>
       </c>
-      <c r="N23" s="9">
+      <c r="O23" s="9">
         <v>202.47800000000001</v>
       </c>
-      <c r="O23" s="9">
+      <c r="P23" s="9">
         <v>198.09399999999999</v>
       </c>
-      <c r="P23" s="9">
+      <c r="Q23" s="9">
         <v>203.535</v>
       </c>
-      <c r="Q23" s="9">
+      <c r="R23" s="9">
         <v>205.59100000000001</v>
       </c>
-      <c r="R23" s="9">
-        <f>J23</f>
-        <v>208.55199999999999</v>
-      </c>
       <c r="S23" s="9">
-        <f>R23</f>
-        <v>208.55199999999999</v>
+        <v>208</v>
       </c>
       <c r="T23" s="9">
-        <f>S23</f>
-        <v>208.55199999999999</v>
+        <v>210</v>
       </c>
       <c r="U23" s="9">
         <f>T23</f>
-        <v>208.55199999999999</v>
+        <v>210</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" ref="V23:Z23" si="27">U23</f>
-        <v>208.55199999999999</v>
+        <f>U23</f>
+        <v>210</v>
       </c>
       <c r="W23" s="9">
-        <f t="shared" si="27"/>
-        <v>208.55199999999999</v>
+        <f t="shared" ref="W23:AA23" si="27">V23</f>
+        <v>210</v>
       </c>
       <c r="X23" s="9">
         <f t="shared" si="27"/>
-        <v>208.55199999999999</v>
+        <v>210</v>
       </c>
       <c r="Y23" s="9">
         <f t="shared" si="27"/>
-        <v>208.55199999999999</v>
+        <v>210</v>
       </c>
       <c r="Z23" s="9">
         <f t="shared" si="27"/>
-        <v>208.55199999999999</v>
-      </c>
-      <c r="AA23" s="9"/>
+        <v>210</v>
+      </c>
+      <c r="AA23" s="9">
+        <f t="shared" si="27"/>
+        <v>210</v>
+      </c>
       <c r="AB23" s="9"/>
       <c r="AC23" s="9"/>
       <c r="AD23" s="9"/>
@@ -2903,8 +2974,9 @@
       <c r="AJ23" s="9"/>
       <c r="AK23" s="9"/>
       <c r="AL23" s="9"/>
-    </row>
-    <row r="24" spans="2:152">
+      <c r="AM23" s="9"/>
+    </row>
+    <row r="24" spans="2:153">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2941,8 +3013,9 @@
       <c r="AJ24" s="9"/>
       <c r="AK24" s="9"/>
       <c r="AL24" s="9"/>
-    </row>
-    <row r="25" spans="2:152">
+      <c r="AM24" s="9"/>
+    </row>
+    <row r="25" spans="2:153">
       <c r="B25" t="s">
         <v>28</v>
       </c>
@@ -2964,63 +3037,66 @@
       </c>
       <c r="J25" s="13">
         <f>J7/F7-1</f>
-        <v>0.25</v>
-      </c>
-      <c r="K25" s="13"/>
+        <v>0.21337710299548629</v>
+      </c>
+      <c r="K25" s="13">
+        <f>K7/G7-1</f>
+        <v>0.19184402612370333</v>
+      </c>
       <c r="L25" s="13"/>
-      <c r="M25" s="13">
-        <f t="shared" ref="M25:S25" si="28">M7/L7-1</f>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
+        <f t="shared" ref="N25:T25" si="28">N7/M7-1</f>
         <v>0.32668711656441718</v>
       </c>
-      <c r="N25" s="13">
+      <c r="O25" s="13">
         <f t="shared" si="28"/>
         <v>0.30606936416184971</v>
       </c>
-      <c r="O25" s="13">
+      <c r="P25" s="13">
         <f t="shared" si="28"/>
         <v>0.30471343217526003</v>
       </c>
-      <c r="P25" s="13">
+      <c r="Q25" s="13">
         <f t="shared" si="28"/>
         <v>0.22879918588873815</v>
       </c>
-      <c r="Q25" s="13">
+      <c r="R25" s="13">
         <f t="shared" si="28"/>
         <v>0.23823326432022074</v>
       </c>
-      <c r="R25" s="13">
-        <f t="shared" si="28"/>
-        <v>0.23433842381005454</v>
-      </c>
       <c r="S25" s="13">
         <f t="shared" si="28"/>
+        <v>0.22438970014491133</v>
+      </c>
+      <c r="T25" s="13">
+        <f t="shared" si="28"/>
         <v>0.20599999999999996</v>
       </c>
-      <c r="T25" s="13">
+      <c r="U25" s="13">
+        <v>0.21229999999999999</v>
+      </c>
+      <c r="V25" s="13">
         <v>0.25</v>
       </c>
-      <c r="U25" s="13">
-        <v>0.25</v>
-      </c>
-      <c r="V25" s="13">
+      <c r="W25" s="13">
         <v>0.24</v>
       </c>
-      <c r="W25" s="13">
+      <c r="X25" s="13">
         <v>0.22</v>
       </c>
-      <c r="X25" s="13">
+      <c r="Y25" s="13">
         <v>0.2</v>
       </c>
-      <c r="Y25" s="13">
+      <c r="Z25" s="13">
         <v>0.15</v>
       </c>
-      <c r="Z25" s="13">
+      <c r="AA25" s="13">
         <v>0.1</v>
       </c>
-      <c r="AA25" s="13">
+      <c r="AB25" s="13">
         <v>0.05</v>
       </c>
-      <c r="AB25" s="13"/>
       <c r="AC25" s="13"/>
       <c r="AD25" s="13"/>
       <c r="AE25" s="13"/>
@@ -3028,16 +3104,17 @@
       <c r="AG25" s="13"/>
       <c r="AH25" s="13"/>
       <c r="AI25" s="13"/>
-      <c r="AJ25" s="9"/>
+      <c r="AJ25" s="13"/>
       <c r="AK25" s="9"/>
       <c r="AL25" s="9"/>
-    </row>
-    <row r="26" spans="2:152">
+      <c r="AM25" s="9"/>
+    </row>
+    <row r="26" spans="2:153">
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="13">
-        <f t="shared" ref="C26:J26" si="29">C11/C7</f>
+        <f t="shared" ref="C26:K26" si="29">C11/C7</f>
         <v>0.79103053435114501</v>
       </c>
       <c r="D26" s="13">
@@ -3066,42 +3143,45 @@
       </c>
       <c r="J26" s="13">
         <f t="shared" si="29"/>
-        <v>0.81321296676241284</v>
-      </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13">
-        <f t="shared" ref="L26:S26" si="30">L11/L7</f>
+        <v>0.78660804869800471</v>
+      </c>
+      <c r="K26" s="13">
+        <f t="shared" si="29"/>
+        <v>0.80305379435721724</v>
+      </c>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:T26" si="30">M11/M7</f>
         <v>0.76150306748466257</v>
       </c>
-      <c r="M26" s="13">
+      <c r="N26" s="13">
         <f t="shared" si="30"/>
         <v>0.76994219653179186</v>
       </c>
-      <c r="N26" s="13">
+      <c r="O26" s="13">
         <f t="shared" si="30"/>
         <v>0.78158884709006415</v>
       </c>
-      <c r="O26" s="13">
+      <c r="P26" s="13">
         <f t="shared" si="30"/>
         <v>0.77052238805970152</v>
       </c>
-      <c r="P26" s="13">
+      <c r="Q26" s="13">
         <f t="shared" si="30"/>
         <v>0.78288474810213937</v>
       </c>
-      <c r="Q26" s="13">
+      <c r="R26" s="13">
         <f t="shared" si="30"/>
         <v>0.78586556682644071</v>
       </c>
-      <c r="R26" s="13">
-        <f t="shared" si="30"/>
-        <v>0.79906531506107059</v>
-      </c>
       <c r="S26" s="13">
         <f t="shared" si="30"/>
-        <v>0.79906531506107059</v>
-      </c>
-      <c r="T26" s="13"/>
+        <v>0.79178805535324104</v>
+      </c>
+      <c r="T26" s="13">
+        <f t="shared" si="30"/>
+        <v>0.79178805535324093</v>
+      </c>
       <c r="U26" s="13"/>
       <c r="V26" s="13"/>
       <c r="W26" s="13"/>
@@ -3117,106 +3197,91 @@
       <c r="AG26" s="13"/>
       <c r="AH26" s="13"/>
       <c r="AI26" s="13"/>
-      <c r="AJ26" s="9"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="9"/>
       <c r="AL26" s="9"/>
-    </row>
-    <row r="27" spans="2:152">
+      <c r="AM26" s="9"/>
+    </row>
+    <row r="27" spans="2:153">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C27" s="13">
-        <f t="shared" ref="C27:S27" si="31">C21/C7</f>
-        <v>7.15648854961832E-2</v>
+        <f t="shared" ref="C27:F27" si="31">C16/C7</f>
+        <v>6.8702290076335881E-2</v>
       </c>
       <c r="D27" s="13">
         <f t="shared" si="31"/>
-        <v>0.48558139534883721</v>
+        <v>5.4418604651162793E-2</v>
       </c>
       <c r="E27" s="13">
         <f t="shared" si="31"/>
-        <v>0.10576923076923077</v>
+        <v>0.10096153846153846</v>
       </c>
       <c r="F27" s="13">
         <f t="shared" si="31"/>
-        <v>0.12105047189167009</v>
+        <v>0.1107919573245794</v>
       </c>
       <c r="G27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.13330772185939302</v>
+        <f t="shared" ref="G27:I27" si="32">G16/G7</f>
+        <v>0.12754514022281982</v>
       </c>
       <c r="H27" s="13">
-        <f t="shared" si="31"/>
-        <v>9.9733536353254659E-2</v>
+        <f t="shared" si="32"/>
+        <v>9.1358964598401218E-2</v>
       </c>
       <c r="I27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.1544511977118341</v>
+        <f t="shared" si="32"/>
+        <v>0.14944583482302468</v>
       </c>
       <c r="J27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.24247120458818028</v>
-      </c>
-      <c r="K27" s="13" t="e">
-        <f t="shared" si="31"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L27" s="13">
-        <f t="shared" si="31"/>
-        <v>-9.9693251533742328E-3</v>
-      </c>
+        <f>J16/J7</f>
+        <v>0.12647954007439974</v>
+      </c>
+      <c r="K27" s="13">
+        <f t="shared" ref="K27:T27" si="33">K16/K7</f>
+        <v>0.13743363944339324</v>
+      </c>
+      <c r="L27" s="13"/>
       <c r="M27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.18121387283236995</v>
+        <f t="shared" si="33"/>
+        <v>-1.6104294478527608E-2</v>
       </c>
       <c r="N27" s="13">
-        <f t="shared" si="31"/>
-        <v>2.6333259570701484E-2</v>
+        <f t="shared" si="33"/>
+        <v>1.2427745664739885E-2</v>
       </c>
       <c r="O27" s="13">
-        <f t="shared" si="31"/>
-        <v>3.9009497964721848E-2</v>
+        <f t="shared" si="33"/>
+        <v>4.4036291214870543E-2</v>
       </c>
       <c r="P27" s="13">
-        <f t="shared" si="31"/>
-        <v>4.4858523119392688E-2</v>
+        <f t="shared" si="33"/>
+        <v>4.3588873812754413E-2</v>
       </c>
       <c r="Q27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.19295507747185375</v>
+        <f t="shared" si="33"/>
+        <v>4.8999309868875088E-2</v>
       </c>
       <c r="R27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.16071414507725773</v>
+        <f t="shared" si="33"/>
+        <v>8.4940363393155721E-2</v>
       </c>
       <c r="S27" s="13">
-        <f t="shared" si="31"/>
-        <v>0.16119771260972895</v>
+        <f t="shared" si="33"/>
+        <v>0.12418062636562273</v>
       </c>
       <c r="T27" s="13">
-        <v>0.16</v>
-      </c>
-      <c r="U27" s="13">
-        <v>0.17</v>
-      </c>
-      <c r="V27" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="W27" s="13">
-        <v>0.2</v>
-      </c>
-      <c r="X27" s="13">
-        <v>0.22</v>
-      </c>
-      <c r="Y27" s="13">
-        <v>0.23</v>
-      </c>
-      <c r="Z27" s="13">
-        <v>0.24</v>
-      </c>
-      <c r="AA27" s="13">
-        <v>0.25</v>
-      </c>
+        <f t="shared" si="33"/>
+        <v>0.12418062636562262</v>
+      </c>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
       <c r="AB27" s="13"/>
       <c r="AC27" s="13"/>
       <c r="AD27" s="13"/>
@@ -3225,88 +3290,108 @@
       <c r="AG27" s="13"/>
       <c r="AH27" s="13"/>
       <c r="AI27" s="13"/>
-      <c r="AJ27" s="9"/>
+      <c r="AJ27" s="13"/>
       <c r="AK27" s="9"/>
       <c r="AL27" s="9"/>
-    </row>
-    <row r="28" spans="2:152">
+      <c r="AM27" s="9"/>
+    </row>
+    <row r="28" spans="2:153">
       <c r="B28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C28" s="13">
-        <f t="shared" ref="C28:J28" si="32">C20/C19</f>
-        <v>0.20212765957446807</v>
+        <f t="shared" ref="C28:T28" si="34">C21/C7</f>
+        <v>7.15648854961832E-2</v>
       </c>
       <c r="D28" s="13">
-        <f t="shared" si="32"/>
-        <v>-5</v>
+        <f t="shared" si="34"/>
+        <v>0.48558139534883721</v>
       </c>
       <c r="E28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.19063545150501673</v>
+        <f t="shared" si="34"/>
+        <v>0.10576923076923077</v>
       </c>
       <c r="F28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.14985590778097982</v>
+        <f t="shared" si="34"/>
+        <v>0.12105047189167009</v>
       </c>
       <c r="G28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.18352941176470589</v>
+        <f t="shared" si="34"/>
+        <v>0.13330772185939302</v>
       </c>
       <c r="H28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.21556886227544911</v>
+        <f t="shared" si="34"/>
+        <v>9.9733536353254659E-2</v>
       </c>
       <c r="I28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.16279069767441862</v>
+        <f t="shared" si="34"/>
+        <v>0.1544511977118341</v>
       </c>
       <c r="J28" s="13">
-        <f t="shared" si="32"/>
-        <v>0.16279069767441862</v>
-      </c>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13">
-        <f t="shared" ref="L28:S28" si="33">L20/L19</f>
-        <v>0.31578947368421051</v>
-      </c>
+        <f t="shared" si="34"/>
+        <v>0.12986134595874196</v>
+      </c>
+      <c r="K28" s="13">
+        <f t="shared" si="34"/>
+        <v>0.13750936361750773</v>
+      </c>
+      <c r="L28" s="13"/>
       <c r="M28" s="13">
-        <f t="shared" si="33"/>
-        <v>-8.2205882352941178</v>
+        <f t="shared" si="34"/>
+        <v>-9.9693251533742328E-3</v>
       </c>
       <c r="N28" s="13">
-        <f t="shared" si="33"/>
-        <v>0.20134228187919462</v>
+        <f t="shared" si="34"/>
+        <v>0.18121387283236995</v>
       </c>
       <c r="O28" s="13">
-        <f t="shared" si="33"/>
-        <v>7.6305220883534142E-2</v>
+        <f t="shared" si="34"/>
+        <v>2.6333259570701484E-2</v>
       </c>
       <c r="P28" s="13">
-        <f t="shared" si="33"/>
-        <v>0.18546365914786966</v>
+        <f t="shared" si="34"/>
+        <v>3.9009497964721848E-2</v>
       </c>
       <c r="Q28" s="13">
-        <f t="shared" si="33"/>
-        <v>-0.71726190476190477</v>
+        <f t="shared" si="34"/>
+        <v>4.4858523119392688E-2</v>
       </c>
       <c r="R28" s="13">
-        <f t="shared" si="33"/>
-        <v>0.1750479049823877</v>
+        <f t="shared" si="34"/>
+        <v>0.19295507747185375</v>
       </c>
       <c r="S28" s="13">
-        <f t="shared" si="33"/>
-        <v>0.1750479049823877</v>
-      </c>
-      <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
-      <c r="X28" s="13"/>
-      <c r="Y28" s="13"/>
-      <c r="Z28" s="13"/>
-      <c r="AA28" s="13"/>
-      <c r="AB28" s="13"/>
+        <f t="shared" si="34"/>
+        <v>0.12973415877640204</v>
+      </c>
+      <c r="T28" s="13">
+        <f t="shared" si="34"/>
+        <v>0.13030792766300903</v>
+      </c>
+      <c r="U28" s="13">
+        <v>0.16</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0.17</v>
+      </c>
+      <c r="W28" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="X28" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="Y28" s="13">
+        <v>0.24</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="AA28" s="13">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB28" s="13">
+        <v>0.3</v>
+      </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
       <c r="AE28" s="13"/>
@@ -3314,26 +3399,117 @@
       <c r="AG28" s="13"/>
       <c r="AH28" s="13"/>
       <c r="AI28" s="13"/>
-      <c r="AJ28" s="9"/>
+      <c r="AJ28" s="13"/>
       <c r="AK28" s="9"/>
       <c r="AL28" s="9"/>
-    </row>
-    <row r="30" spans="2:152">
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:152">
+      <c r="AM28" s="9"/>
+    </row>
+    <row r="29" spans="2:153">
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="13">
+        <f t="shared" ref="C29:J29" si="35">C20/C19</f>
+        <v>0.20212765957446807</v>
+      </c>
+      <c r="D29" s="13">
+        <f t="shared" si="35"/>
+        <v>-5</v>
+      </c>
+      <c r="E29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.19063545150501673</v>
+      </c>
+      <c r="F29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.14985590778097982</v>
+      </c>
+      <c r="G29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.18352941176470589</v>
+      </c>
+      <c r="H29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.21556886227544911</v>
+      </c>
+      <c r="I29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.16279069767441862</v>
+      </c>
+      <c r="J29" s="13">
+        <f t="shared" si="35"/>
+        <v>0.17062634989200864</v>
+      </c>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13">
+        <f t="shared" ref="M29:T29" si="36">M20/M19</f>
+        <v>0.31578947368421051</v>
+      </c>
+      <c r="N29" s="13">
+        <f t="shared" si="36"/>
+        <v>-8.2205882352941178</v>
+      </c>
+      <c r="O29" s="13">
+        <f t="shared" si="36"/>
+        <v>0.20134228187919462</v>
+      </c>
+      <c r="P29" s="13">
+        <f t="shared" si="36"/>
+        <v>7.6305220883534142E-2</v>
+      </c>
+      <c r="Q29" s="13">
+        <f t="shared" si="36"/>
+        <v>0.18546365914786966</v>
+      </c>
+      <c r="R29" s="13">
+        <f t="shared" si="36"/>
+        <v>-0.71726190476190477</v>
+      </c>
+      <c r="S29" s="13">
+        <f t="shared" si="36"/>
+        <v>0.18009205983889529</v>
+      </c>
+      <c r="T29" s="13">
+        <f t="shared" si="36"/>
+        <v>0.18009205983889529</v>
+      </c>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13"/>
+      <c r="AI29" s="13"/>
+      <c r="AJ29" s="13"/>
+      <c r="AK29" s="9"/>
+      <c r="AL29" s="9"/>
+      <c r="AM29" s="9"/>
+    </row>
+    <row r="31" spans="2:153">
       <c r="E31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="2:152">
+    </row>
+    <row r="32" spans="2:153">
       <c r="E32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
     </row>
     <row r="33" spans="5:5">
       <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="5:5">
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/NOW.xlsx
+++ b/NOW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ayanpussurmanov/Finance/financial_models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA908F8E-BDD8-8849-9AC1-F5363F9A6CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A955E7-DB3B-E34A-A4DC-C4D7EE39128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="920" windowWidth="13640" windowHeight="17260" activeTab="1" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
+    <workbookView xWindow="480" yWindow="920" windowWidth="13640" windowHeight="17260" xr2:uid="{3BDED087-3407-8241-8728-00B8A6385B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12295623-B6AF-424A-9429-F5411A9FAD84}">
   <dimension ref="G1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -712,7 +712,7 @@
       </c>
       <c r="L12" s="2">
         <f>NPV(L11,Model!T21:EW21)+L5-L6</f>
-        <v>149881.25475625932</v>
+        <v>130214.64452777975</v>
       </c>
     </row>
     <row r="13" spans="7:13">
@@ -721,13 +721,13 @@
       </c>
       <c r="L13" s="6">
         <f>L12/L3</f>
-        <v>727.57890658378312</v>
+        <v>632.1099248921347</v>
       </c>
     </row>
     <row r="15" spans="7:13">
       <c r="L15" s="7">
         <f>L13/L2-1</f>
-        <v>-0.32001971347309988</v>
+        <v>-0.40924306084847228</v>
       </c>
     </row>
     <row r="19" spans="10:12">
@@ -749,7 +749,7 @@
         <v>45687</v>
       </c>
       <c r="L20" s="19">
-        <v>727.57890658378312</v>
+        <v>632.1099248921347</v>
       </c>
     </row>
   </sheetData>
@@ -761,11 +761,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908B727C-CA7F-E746-8E42-955BCD0EE802}">
   <dimension ref="A1:EW34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q5" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="X5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="T30" sqref="T30"/>
+      <selection pane="bottomRight" activeCell="AC28" sqref="AC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2253,515 +2253,515 @@
       </c>
       <c r="Z21" s="15">
         <f t="shared" si="22"/>
-        <v>10895.869684758014</v>
+        <v>10476.797773805782</v>
       </c>
       <c r="AA21" s="15">
         <f t="shared" si="22"/>
-        <v>12907.414857328726</v>
+        <v>11524.477551186361</v>
       </c>
       <c r="AB21" s="15">
         <f t="shared" si="22"/>
-        <v>14520.841714494814</v>
+        <v>12100.701428745679</v>
       </c>
       <c r="AC21" s="15">
         <f>AB21*(1+Main!$L$10)</f>
-        <v>14666.050131639762</v>
+        <v>12221.708443033136</v>
       </c>
       <c r="AD21" s="15">
         <f>AC21*(1+Main!$L$10)</f>
-        <v>14812.710632956159</v>
+        <v>12343.925527463467</v>
       </c>
       <c r="AE21" s="15">
         <f>AD21*(1+Main!$L$10)</f>
-        <v>14960.837739285722</v>
+        <v>12467.364782738101</v>
       </c>
       <c r="AF21" s="15">
         <f>AE21*(1+Main!$L$10)</f>
-        <v>15110.446116678579</v>
+        <v>12592.038430565482</v>
       </c>
       <c r="AG21" s="15">
         <f>AF21*(1+Main!$L$10)</f>
-        <v>15261.550577845364</v>
+        <v>12717.958814871137</v>
       </c>
       <c r="AH21" s="15">
         <f>AG21*(1+Main!$L$10)</f>
-        <v>15414.166083623819</v>
+        <v>12845.13840301985</v>
       </c>
       <c r="AI21" s="15">
         <f>AH21*(1+Main!$L$10)</f>
-        <v>15568.307744460057</v>
+        <v>12973.589787050048</v>
       </c>
       <c r="AJ21" s="15">
         <f>AI21*(1+Main!$L$10)</f>
-        <v>15723.990821904657</v>
+        <v>13103.32568492055</v>
       </c>
       <c r="AK21" s="15">
         <f>AJ21*(1+Main!$L$10)</f>
-        <v>15881.230730123703</v>
+        <v>13234.358941769755</v>
       </c>
       <c r="AL21" s="15">
         <f>AK21*(1+Main!$L$10)</f>
-        <v>16040.043037424941</v>
+        <v>13366.702531187453</v>
       </c>
       <c r="AM21" s="15">
         <f>AL21*(1+Main!$L$10)</f>
-        <v>16200.44346779919</v>
+        <v>13500.369556499329</v>
       </c>
       <c r="AN21" s="15">
         <f>AM21*(1+Main!$L$10)</f>
-        <v>16362.447902477183</v>
+        <v>13635.373252064323</v>
       </c>
       <c r="AO21" s="15">
         <f>AN21*(1+Main!$L$10)</f>
-        <v>16526.072381501956</v>
+        <v>13771.726984584966</v>
       </c>
       <c r="AP21" s="15">
         <f>AO21*(1+Main!$L$10)</f>
-        <v>16691.333105316975</v>
+        <v>13909.444254430815</v>
       </c>
       <c r="AQ21" s="15">
         <f>AP21*(1+Main!$L$10)</f>
-        <v>16858.246436370144</v>
+        <v>14048.538696975123</v>
       </c>
       <c r="AR21" s="15">
         <f>AQ21*(1+Main!$L$10)</f>
-        <v>17026.828900733846</v>
+        <v>14189.024083944874</v>
       </c>
       <c r="AS21" s="15">
         <f>AR21*(1+Main!$L$10)</f>
-        <v>17197.097189741184</v>
+        <v>14330.914324784324</v>
       </c>
       <c r="AT21" s="15">
         <f>AS21*(1+Main!$L$10)</f>
-        <v>17369.068161638595</v>
+        <v>14474.223468032167</v>
       </c>
       <c r="AU21" s="15">
         <f>AT21*(1+Main!$L$10)</f>
-        <v>17542.758843254982</v>
+        <v>14618.965702712489</v>
       </c>
       <c r="AV21" s="15">
         <f>AU21*(1+Main!$L$10)</f>
-        <v>17718.186431687533</v>
+        <v>14765.155359739614</v>
       </c>
       <c r="AW21" s="15">
         <f>AV21*(1+Main!$L$10)</f>
-        <v>17895.36829600441</v>
+        <v>14912.80691333701</v>
       </c>
       <c r="AX21" s="15">
         <f>AW21*(1+Main!$L$10)</f>
-        <v>18074.321978964454</v>
+        <v>15061.93498247038</v>
       </c>
       <c r="AY21" s="15">
         <f>AX21*(1+Main!$L$10)</f>
-        <v>18255.065198754099</v>
+        <v>15212.554332295085</v>
       </c>
       <c r="AZ21" s="15">
         <f>AY21*(1+Main!$L$10)</f>
-        <v>18437.61585074164</v>
+        <v>15364.679875618036</v>
       </c>
       <c r="BA21" s="15">
         <f>AZ21*(1+Main!$L$10)</f>
-        <v>18621.992009249057</v>
+        <v>15518.326674374217</v>
       </c>
       <c r="BB21" s="15">
         <f>BA21*(1+Main!$L$10)</f>
-        <v>18808.211929341549</v>
+        <v>15673.50994111796</v>
       </c>
       <c r="BC21" s="15">
         <f>BB21*(1+Main!$L$10)</f>
-        <v>18996.294048634965</v>
+        <v>15830.24504052914</v>
       </c>
       <c r="BD21" s="15">
         <f>BC21*(1+Main!$L$10)</f>
-        <v>19186.256989121313</v>
+        <v>15988.547490934432</v>
       </c>
       <c r="BE21" s="15">
         <f>BD21*(1+Main!$L$10)</f>
-        <v>19378.119559012528</v>
+        <v>16148.432965843776</v>
       </c>
       <c r="BF21" s="15">
         <f>BE21*(1+Main!$L$10)</f>
-        <v>19571.900754602655</v>
+        <v>16309.917295502215</v>
       </c>
       <c r="BG21" s="15">
         <f>BF21*(1+Main!$L$10)</f>
-        <v>19767.619762148683</v>
+        <v>16473.016468457237</v>
       </c>
       <c r="BH21" s="15">
         <f>BG21*(1+Main!$L$10)</f>
-        <v>19965.29595977017</v>
+        <v>16637.746633141811</v>
       </c>
       <c r="BI21" s="15">
         <f>BH21*(1+Main!$L$10)</f>
-        <v>20164.948919367871</v>
+        <v>16804.124099473229</v>
       </c>
       <c r="BJ21" s="15">
         <f>BI21*(1+Main!$L$10)</f>
-        <v>20366.598408561549</v>
+        <v>16972.16534046796</v>
       </c>
       <c r="BK21" s="15">
         <f>BJ21*(1+Main!$L$10)</f>
-        <v>20570.264392647165</v>
+        <v>17141.886993872638</v>
       </c>
       <c r="BL21" s="15">
         <f>BK21*(1+Main!$L$10)</f>
-        <v>20775.967036573635</v>
+        <v>17313.305863811365</v>
       </c>
       <c r="BM21" s="15">
         <f>BL21*(1+Main!$L$10)</f>
-        <v>20983.726706939371</v>
+        <v>17486.438922449481</v>
       </c>
       <c r="BN21" s="15">
         <f>BM21*(1+Main!$L$10)</f>
-        <v>21193.563974008764</v>
+        <v>17661.303311673975</v>
       </c>
       <c r="BO21" s="15">
         <f>BN21*(1+Main!$L$10)</f>
-        <v>21405.499613748852</v>
+        <v>17837.916344790716</v>
       </c>
       <c r="BP21" s="15">
         <f>BO21*(1+Main!$L$10)</f>
-        <v>21619.554609886341</v>
+        <v>18016.295508238622</v>
       </c>
       <c r="BQ21" s="15">
         <f>BP21*(1+Main!$L$10)</f>
-        <v>21835.750155985206</v>
+        <v>18196.458463321007</v>
       </c>
       <c r="BR21" s="15">
         <f>BQ21*(1+Main!$L$10)</f>
-        <v>22054.107657545057</v>
+        <v>18378.423047954217</v>
       </c>
       <c r="BS21" s="15">
         <f>BR21*(1+Main!$L$10)</f>
-        <v>22274.648734120507</v>
+        <v>18562.207278433758</v>
       </c>
       <c r="BT21" s="15">
         <f>BS21*(1+Main!$L$10)</f>
-        <v>22497.395221461713</v>
+        <v>18747.829351218097</v>
       </c>
       <c r="BU21" s="15">
         <f>BT21*(1+Main!$L$10)</f>
-        <v>22722.369173676329</v>
+        <v>18935.307644730277</v>
       </c>
       <c r="BV21" s="15">
         <f>BU21*(1+Main!$L$10)</f>
-        <v>22949.592865413091</v>
+        <v>19124.660721177581</v>
       </c>
       <c r="BW21" s="15">
         <f>BV21*(1+Main!$L$10)</f>
-        <v>23179.088794067222</v>
+        <v>19315.907328389356</v>
       </c>
       <c r="BX21" s="15">
         <f>BW21*(1+Main!$L$10)</f>
-        <v>23410.879682007893</v>
+        <v>19509.066401673248</v>
       </c>
       <c r="BY21" s="15">
         <f>BX21*(1+Main!$L$10)</f>
-        <v>23644.988478827974</v>
+        <v>19704.157065689982</v>
       </c>
       <c r="BZ21" s="15">
         <f>BY21*(1+Main!$L$10)</f>
-        <v>23881.438363616253</v>
+        <v>19901.198636346882</v>
       </c>
       <c r="CA21" s="15">
         <f>BZ21*(1+Main!$L$10)</f>
-        <v>24120.252747252416</v>
+        <v>20100.21062271035</v>
       </c>
       <c r="CB21" s="15">
         <f>CA21*(1+Main!$L$10)</f>
-        <v>24361.45527472494</v>
+        <v>20301.212728937455</v>
       </c>
       <c r="CC21" s="15">
         <f>CB21*(1+Main!$L$10)</f>
-        <v>24605.069827472191</v>
+        <v>20504.224856226829</v>
       </c>
       <c r="CD21" s="15">
         <f>CC21*(1+Main!$L$10)</f>
-        <v>24851.120525746912</v>
+        <v>20709.267104789098</v>
       </c>
       <c r="CE21" s="15">
         <f>CD21*(1+Main!$L$10)</f>
-        <v>25099.631731004381</v>
+        <v>20916.359775836991</v>
       </c>
       <c r="CF21" s="15">
         <f>CE21*(1+Main!$L$10)</f>
-        <v>25350.628048314426</v>
+        <v>21125.523373595363</v>
       </c>
       <c r="CG21" s="15">
         <f>CF21*(1+Main!$L$10)</f>
-        <v>25604.134328797569</v>
+        <v>21336.778607331315</v>
       </c>
       <c r="CH21" s="15">
         <f>CG21*(1+Main!$L$10)</f>
-        <v>25860.175672085545</v>
+        <v>21550.14639340463</v>
       </c>
       <c r="CI21" s="15">
         <f>CH21*(1+Main!$L$10)</f>
-        <v>26118.777428806399</v>
+        <v>21765.647857338678</v>
       </c>
       <c r="CJ21" s="15">
         <f>CI21*(1+Main!$L$10)</f>
-        <v>26379.965203094464</v>
+        <v>21983.304335912064</v>
       </c>
       <c r="CK21" s="15">
         <f>CJ21*(1+Main!$L$10)</f>
-        <v>26643.76485512541</v>
+        <v>22203.137379271186</v>
       </c>
       <c r="CL21" s="15">
         <f>CK21*(1+Main!$L$10)</f>
-        <v>26910.202503676664</v>
+        <v>22425.168753063899</v>
       </c>
       <c r="CM21" s="15">
         <f>CL21*(1+Main!$L$10)</f>
-        <v>27179.30452871343</v>
+        <v>22649.420440594538</v>
       </c>
       <c r="CN21" s="15">
         <f>CM21*(1+Main!$L$10)</f>
-        <v>27451.097574000563</v>
+        <v>22875.914645000485</v>
       </c>
       <c r="CO21" s="15">
         <f>CN21*(1+Main!$L$10)</f>
-        <v>27725.608549740569</v>
+        <v>23104.673791450488</v>
       </c>
       <c r="CP21" s="15">
         <f>CO21*(1+Main!$L$10)</f>
-        <v>28002.864635237976</v>
+        <v>23335.720529364993</v>
       </c>
       <c r="CQ21" s="15">
         <f>CP21*(1+Main!$L$10)</f>
-        <v>28282.893281590357</v>
+        <v>23569.077734658644</v>
       </c>
       <c r="CR21" s="15">
         <f>CQ21*(1+Main!$L$10)</f>
-        <v>28565.722214406262</v>
+        <v>23804.76851200523</v>
       </c>
       <c r="CS21" s="15">
         <f>CR21*(1+Main!$L$10)</f>
-        <v>28851.379436550324</v>
+        <v>24042.816197125281</v>
       </c>
       <c r="CT21" s="15">
         <f>CS21*(1+Main!$L$10)</f>
-        <v>29139.893230915826</v>
+        <v>24283.244359096534</v>
       </c>
       <c r="CU21" s="15">
         <f>CT21*(1+Main!$L$10)</f>
-        <v>29431.292163224985</v>
+        <v>24526.076802687501</v>
       </c>
       <c r="CV21" s="15">
         <f>CU21*(1+Main!$L$10)</f>
-        <v>29725.605084857234</v>
+        <v>24771.337570714375</v>
       </c>
       <c r="CW21" s="15">
         <f>CV21*(1+Main!$L$10)</f>
-        <v>30022.861135705807</v>
+        <v>25019.050946421517</v>
       </c>
       <c r="CX21" s="15">
         <f>CW21*(1+Main!$L$10)</f>
-        <v>30323.089747062866</v>
+        <v>25269.241455885734</v>
       </c>
       <c r="CY21" s="15">
         <f>CX21*(1+Main!$L$10)</f>
-        <v>30626.320644533494</v>
+        <v>25521.933870444591</v>
       </c>
       <c r="CZ21" s="15">
         <f>CY21*(1+Main!$L$10)</f>
-        <v>30932.58385097883</v>
+        <v>25777.153209149037</v>
       </c>
       <c r="DA21" s="15">
         <f>CZ21*(1+Main!$L$10)</f>
-        <v>31241.909689488617</v>
+        <v>26034.924741240528</v>
       </c>
       <c r="DB21" s="15">
         <f>DA21*(1+Main!$L$10)</f>
-        <v>31554.328786383503</v>
+        <v>26295.273988652934</v>
       </c>
       <c r="DC21" s="15">
         <f>DB21*(1+Main!$L$10)</f>
-        <v>31869.872074247338</v>
+        <v>26558.226728539463</v>
       </c>
       <c r="DD21" s="15">
         <f>DC21*(1+Main!$L$10)</f>
-        <v>32188.570794989813</v>
+        <v>26823.808995824857</v>
       </c>
       <c r="DE21" s="15">
         <f>DD21*(1+Main!$L$10)</f>
-        <v>32510.456502939713</v>
+        <v>27092.047085783106</v>
       </c>
       <c r="DF21" s="15">
         <f>DE21*(1+Main!$L$10)</f>
-        <v>32835.561067969109</v>
+        <v>27362.967556640939</v>
       </c>
       <c r="DG21" s="15">
         <f>DF21*(1+Main!$L$10)</f>
-        <v>33163.916678648799</v>
+        <v>27636.597232207347</v>
       </c>
       <c r="DH21" s="15">
         <f>DG21*(1+Main!$L$10)</f>
-        <v>33495.555845435287</v>
+        <v>27912.96320452942</v>
       </c>
       <c r="DI21" s="15">
         <f>DH21*(1+Main!$L$10)</f>
-        <v>33830.511403889643</v>
+        <v>28192.092836574713</v>
       </c>
       <c r="DJ21" s="15">
         <f>DI21*(1+Main!$L$10)</f>
-        <v>34168.816517928542</v>
+        <v>28474.013764940461</v>
       </c>
       <c r="DK21" s="15">
         <f>DJ21*(1+Main!$L$10)</f>
-        <v>34510.504683107829</v>
+        <v>28758.753902589866</v>
       </c>
       <c r="DL21" s="15">
         <f>DK21*(1+Main!$L$10)</f>
-        <v>34855.609729938908</v>
+        <v>29046.341441615765</v>
       </c>
       <c r="DM21" s="15">
         <f>DL21*(1+Main!$L$10)</f>
-        <v>35204.165827238299</v>
+        <v>29336.804856031922</v>
       </c>
       <c r="DN21" s="15">
         <f>DM21*(1+Main!$L$10)</f>
-        <v>35556.207485510684</v>
+        <v>29630.17290459224</v>
       </c>
       <c r="DO21" s="15">
         <f>DN21*(1+Main!$L$10)</f>
-        <v>35911.769560365792</v>
+        <v>29926.474633638161</v>
       </c>
       <c r="DP21" s="15">
         <f>DO21*(1+Main!$L$10)</f>
-        <v>36270.88725596945</v>
+        <v>30225.739379974544</v>
       </c>
       <c r="DQ21" s="15">
         <f>DP21*(1+Main!$L$10)</f>
-        <v>36633.596128529141</v>
+        <v>30527.996773774288</v>
       </c>
       <c r="DR21" s="15">
         <f>DQ21*(1+Main!$L$10)</f>
-        <v>36999.932089814436</v>
+        <v>30833.276741512032</v>
       </c>
       <c r="DS21" s="15">
         <f>DR21*(1+Main!$L$10)</f>
-        <v>37369.931410712583</v>
+        <v>31141.609508927155</v>
       </c>
       <c r="DT21" s="15">
         <f>DS21*(1+Main!$L$10)</f>
-        <v>37743.630724819712</v>
+        <v>31453.025604016428</v>
       </c>
       <c r="DU21" s="15">
         <f>DT21*(1+Main!$L$10)</f>
-        <v>38121.067032067913</v>
+        <v>31767.555860056593</v>
       </c>
       <c r="DV21" s="15">
         <f>DU21*(1+Main!$L$10)</f>
-        <v>38502.277702388594</v>
+        <v>32085.23141865716</v>
       </c>
       <c r="DW21" s="15">
         <f>DV21*(1+Main!$L$10)</f>
-        <v>38887.300479412479</v>
+        <v>32406.083732843734</v>
       </c>
       <c r="DX21" s="15">
         <f>DW21*(1+Main!$L$10)</f>
-        <v>39276.173484206607</v>
+        <v>32730.144570172171</v>
       </c>
       <c r="DY21" s="15">
         <f>DX21*(1+Main!$L$10)</f>
-        <v>39668.935219048675</v>
+        <v>33057.446015873895</v>
       </c>
       <c r="DZ21" s="15">
         <f>DY21*(1+Main!$L$10)</f>
-        <v>40065.624571239161</v>
+        <v>33388.020476032631</v>
       </c>
       <c r="EA21" s="15">
         <f>DZ21*(1+Main!$L$10)</f>
-        <v>40466.280816951556</v>
+        <v>33721.900680792955</v>
       </c>
       <c r="EB21" s="15">
         <f>EA21*(1+Main!$L$10)</f>
-        <v>40870.943625121072</v>
+        <v>34059.119687600883</v>
       </c>
       <c r="EC21" s="15">
         <f>EB21*(1+Main!$L$10)</f>
-        <v>41279.653061372286</v>
+        <v>34399.710884476895</v>
       </c>
       <c r="ED21" s="15">
         <f>EC21*(1+Main!$L$10)</f>
-        <v>41692.449591986013</v>
+        <v>34743.707993321666</v>
       </c>
       <c r="EE21" s="15">
         <f>ED21*(1+Main!$L$10)</f>
-        <v>42109.374087905875</v>
+        <v>35091.145073254884</v>
       </c>
       <c r="EF21" s="15">
         <f>EE21*(1+Main!$L$10)</f>
-        <v>42530.467828784931</v>
+        <v>35442.056523987434</v>
       </c>
       <c r="EG21" s="15">
         <f>EF21*(1+Main!$L$10)</f>
-        <v>42955.772507072783</v>
+        <v>35796.477089227308</v>
       </c>
       <c r="EH21" s="15">
         <f>EG21*(1+Main!$L$10)</f>
-        <v>43385.330232143511</v>
+        <v>36154.441860119579</v>
       </c>
       <c r="EI21" s="15">
         <f>EH21*(1+Main!$L$10)</f>
-        <v>43819.183534464944</v>
+        <v>36515.986278720775</v>
       </c>
       <c r="EJ21" s="15">
         <f>EI21*(1+Main!$L$10)</f>
-        <v>44257.375369809597</v>
+        <v>36881.146141507983</v>
       </c>
       <c r="EK21" s="15">
         <f>EJ21*(1+Main!$L$10)</f>
-        <v>44699.949123507693</v>
+        <v>37249.957602923067</v>
       </c>
       <c r="EL21" s="15">
         <f>EK21*(1+Main!$L$10)</f>
-        <v>45146.948614742767</v>
+        <v>37622.457178952296</v>
       </c>
       <c r="EM21" s="15">
         <f>EL21*(1+Main!$L$10)</f>
-        <v>45598.418100890194</v>
+        <v>37998.681750741816</v>
       </c>
       <c r="EN21" s="15">
         <f>EM21*(1+Main!$L$10)</f>
-        <v>46054.4022818991</v>
+        <v>38378.668568249232</v>
       </c>
       <c r="EO21" s="15">
         <f>EN21*(1+Main!$L$10)</f>
-        <v>46514.946304718091</v>
+        <v>38762.455253931723</v>
       </c>
       <c r="EP21" s="15">
         <f>EO21*(1+Main!$L$10)</f>
-        <v>46980.09576776527</v>
+        <v>39150.07980647104</v>
       </c>
       <c r="EQ21" s="15">
         <f>EP21*(1+Main!$L$10)</f>
-        <v>47449.896725442923</v>
+        <v>39541.580604535753</v>
       </c>
       <c r="ER21" s="15">
         <f>EQ21*(1+Main!$L$10)</f>
-        <v>47924.395692697355</v>
+        <v>39936.996410581109</v>
       </c>
       <c r="ES21" s="15">
         <f>ER21*(1+Main!$L$10)</f>
-        <v>48403.639649624332</v>
+        <v>40336.366374686921</v>
       </c>
       <c r="ET21" s="15">
         <f>ES21*(1+Main!$L$10)</f>
-        <v>48887.676046120578</v>
+        <v>40739.730038433787</v>
       </c>
       <c r="EU21" s="15">
         <f>ET21*(1+Main!$L$10)</f>
-        <v>49376.552806581785</v>
+        <v>41147.127338818122</v>
       </c>
       <c r="EV21" s="15">
         <f>EU21*(1+Main!$L$10)</f>
-        <v>49870.318334647607</v>
+        <v>41558.598612206304</v>
       </c>
       <c r="EW21" s="15">
         <f>EV21*(1+Main!$L$10)</f>
-        <v>50369.021517994086</v>
+        <v>41974.184598328371</v>
       </c>
     </row>
     <row r="22" spans="2:153" s="10" customFormat="1">
@@ -2859,11 +2859,11 @@
       </c>
       <c r="Z22" s="12">
         <f t="shared" si="26"/>
-        <v>51.885093736942927</v>
+        <v>49.889513208598963</v>
       </c>
       <c r="AA22" s="12">
         <f t="shared" si="26"/>
-        <v>61.463880272993933</v>
+        <v>54.87846452945886</v>
       </c>
       <c r="AB22" s="12"/>
       <c r="AC22" s="11"/>
@@ -3384,13 +3384,13 @@
         <v>0.24</v>
       </c>
       <c r="Z28" s="13">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="AA28" s="13">
-        <v>0.28000000000000003</v>
+        <v>0.25</v>
       </c>
       <c r="AB28" s="13">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="13"/>
